--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319D9CA-AC01-2C4B-AC60-CCC84974D4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C85551-FD2D-7B4D-BDD7-9309C12681B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="460" windowWidth="19980" windowHeight="13820" activeTab="4" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="6000" yWindow="460" windowWidth="19980" windowHeight="13820" firstSheet="2" activeTab="9" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="Res.Inf" sheetId="2" r:id="rId7"/>
     <sheet name="Hoja1" sheetId="10" state="hidden" r:id="rId8"/>
     <sheet name="RMSE Inf" sheetId="6" r:id="rId9"/>
-    <sheet name="RMSE Inf I(0)" sheetId="9" r:id="rId10"/>
-    <sheet name="Best Models" sheetId="11" r:id="rId11"/>
+    <sheet name="With Scaling" sheetId="12" r:id="rId10"/>
+    <sheet name="RMSE Inf I(0)" sheetId="9" r:id="rId11"/>
+    <sheet name="Best Models" sheetId="11" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Variable List'!$F$2:$F$72</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="216">
   <si>
     <t>Models</t>
   </si>
@@ -271,9 +272,6 @@
   </si>
   <si>
     <t>FRED</t>
-  </si>
-  <si>
-    <t>Banco Central República Dominicana</t>
   </si>
   <si>
     <t>Fedesarrollo</t>
@@ -702,6 +700,42 @@
   <si>
     <t>SVM*</t>
   </si>
+  <si>
+    <t xml:space="preserve">Inflation </t>
+  </si>
+  <si>
+    <t>Depreciation Rate</t>
+  </si>
+  <si>
+    <t>Monthly Depreciation Rate (USD/COP):Non-Unit Root Representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Depreciation Rate (USD/COP)	</t>
+  </si>
+  <si>
+    <t>RMSE (I(0))</t>
+  </si>
+  <si>
+    <t>RMSE RW</t>
+  </si>
+  <si>
+    <t>P-VAL</t>
+  </si>
+  <si>
+    <t>RATIO I(0)</t>
+  </si>
+  <si>
+    <t>RATIO I(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Models </t>
+  </si>
+  <si>
+    <t>NOAA</t>
+  </si>
+  <si>
+    <t>Banco Central de la República Dominicana</t>
+  </si>
 </sst>
 </file>
 
@@ -710,8 +744,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1067,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1203,45 +1237,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,7 +1266,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1293,11 +1296,35 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1347,7 +1374,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s33825"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34117"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1477,7 +1504,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s24193"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s36041"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1542,7 +1569,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s24194"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s36042"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1639,36 +1666,36 @@
       <sheetName val="DBEXC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30">
         <row r="2">
           <cell r="A2" t="str">
@@ -2651,26 +2678,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2975,14 +3002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41A097B-664F-A24A-B66D-4A21B3ABF2AA}">
   <dimension ref="B1:AV85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" topLeftCell="AA51" zoomScale="92" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="AO61" sqref="AO61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="40.1640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
@@ -3005,16 +3032,16 @@
         <v>66</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:48" ht="19">
@@ -3044,10 +3071,10 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ3" s="48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR3" s="48">
         <v>1</v>
@@ -3092,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="AR4" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AS4" s="48">
         <v>1</v>
@@ -3134,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="AR5" s="48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AS5" s="48">
         <v>0</v>
@@ -3176,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="AR6" s="48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AS6" s="48">
         <v>0</v>
@@ -3218,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="AR7" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AS7" s="48">
         <v>0</v>
@@ -3260,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="AR8" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AS8" s="48">
         <v>0</v>
@@ -3302,7 +3329,7 @@
         <v>7</v>
       </c>
       <c r="AR9" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AS9" s="48">
         <v>1</v>
@@ -3344,7 +3371,7 @@
         <v>8</v>
       </c>
       <c r="AR10" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AS10" s="48">
         <v>0</v>
@@ -3361,8 +3388,8 @@
         <f>'[1]List of Variables'!$A10</f>
         <v xml:space="preserve">Exports Producer Price Index </v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>68</v>
+      <c r="C11" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>'[1]List of Variables'!$C10</f>
@@ -3386,7 +3413,7 @@
         <v>9</v>
       </c>
       <c r="AR11" s="48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AS11" s="48">
         <v>0</v>
@@ -3428,7 +3455,7 @@
         <v>10</v>
       </c>
       <c r="AR12" s="48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AS12" s="48">
         <v>1</v>
@@ -3446,7 +3473,7 @@
         <v>Core Consumer Price Index (Ex Food/Regulated)</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11" t="str">
         <f>'[1]List of Variables'!$C12</f>
@@ -3470,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="AR13" s="48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AS13" s="48">
         <v>1</v>
@@ -3512,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="AR14" s="48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS14" s="48">
         <v>1</v>
@@ -3529,7 +3556,7 @@
         <f>'[1]List of Variables'!$A14</f>
         <v>Monthly Activity Index</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="D15" s="11" t="str">
@@ -3554,7 +3581,7 @@
         <v>13</v>
       </c>
       <c r="AR15" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AS15" s="48">
         <v>0</v>
@@ -3596,7 +3623,7 @@
         <v>14</v>
       </c>
       <c r="AR16" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AS16" s="48">
         <v>0</v>
@@ -3638,7 +3665,7 @@
         <v>15</v>
       </c>
       <c r="AR17" s="48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS17" s="48">
         <v>0</v>
@@ -3680,7 +3707,7 @@
         <v>16</v>
       </c>
       <c r="AR18" s="48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AS18" s="48">
         <v>1</v>
@@ -3722,7 +3749,7 @@
         <v>17</v>
       </c>
       <c r="AR19" s="48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AS19" s="48">
         <v>1</v>
@@ -3764,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="AR20" s="48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AS20" s="48">
         <v>1</v>
@@ -3806,7 +3833,7 @@
         <v>19</v>
       </c>
       <c r="AR21" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AS21" s="48">
         <v>1</v>
@@ -3848,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="AR22" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AS22" s="48">
         <v>1</v>
@@ -3890,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AR23" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS23" s="48">
         <v>0</v>
@@ -3932,7 +3959,7 @@
         <v>22</v>
       </c>
       <c r="AR24" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS24" s="48">
         <v>1</v>
@@ -3974,7 +4001,7 @@
         <v>23</v>
       </c>
       <c r="AR25" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS25" s="48">
         <v>1</v>
@@ -4016,7 +4043,7 @@
         <v>24</v>
       </c>
       <c r="AR26" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS26" s="48">
         <v>0</v>
@@ -4058,7 +4085,7 @@
         <v>25</v>
       </c>
       <c r="AR27" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS27" s="48">
         <v>0</v>
@@ -4100,7 +4127,7 @@
         <v>26</v>
       </c>
       <c r="AR28" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS28" s="48">
         <v>1</v>
@@ -4142,7 +4169,7 @@
         <v>27</v>
       </c>
       <c r="AR29" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AS29" s="48">
         <v>1</v>
@@ -4184,7 +4211,7 @@
         <v>28</v>
       </c>
       <c r="AR30" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS30" s="48">
         <v>1</v>
@@ -4226,7 +4253,7 @@
         <v>29</v>
       </c>
       <c r="AR31" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS31" s="48">
         <v>1</v>
@@ -4268,7 +4295,7 @@
         <v>30</v>
       </c>
       <c r="AR32" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS32" s="48">
         <v>1</v>
@@ -4310,7 +4337,7 @@
         <v>31</v>
       </c>
       <c r="AR33" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS33" s="48">
         <v>1</v>
@@ -4352,7 +4379,7 @@
         <v>32</v>
       </c>
       <c r="AR34" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS34" s="48">
         <v>0</v>
@@ -4394,7 +4421,7 @@
         <v>33</v>
       </c>
       <c r="AR35" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS35" s="48">
         <v>0</v>
@@ -4412,7 +4439,7 @@
         <v>Emerging Market Bond Index (Global)</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="D36" s="11" t="str">
         <f>'[1]List of Variables'!$C35</f>
@@ -4436,7 +4463,7 @@
         <v>34</v>
       </c>
       <c r="AR36" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS36" s="48">
         <v>0</v>
@@ -4454,7 +4481,7 @@
         <v>Emerging Market Bond Index (Colombia)</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="D37" s="11" t="str">
         <f>'[1]List of Variables'!$C36</f>
@@ -4478,7 +4505,7 @@
         <v>35</v>
       </c>
       <c r="AR37" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS37" s="48">
         <v>1</v>
@@ -4496,7 +4523,7 @@
         <v>Emerging Market Bond Index (LATINO)</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>'[1]List of Variables'!$C37</f>
@@ -4520,7 +4547,7 @@
         <v>36</v>
       </c>
       <c r="AR38" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS38" s="48">
         <v>0</v>
@@ -4562,7 +4589,7 @@
         <v>37</v>
       </c>
       <c r="AR39" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS39" s="48">
         <v>1</v>
@@ -4604,7 +4631,7 @@
         <v>38</v>
       </c>
       <c r="AR40" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS40" s="48">
         <v>2</v>
@@ -4646,7 +4673,7 @@
         <v>39</v>
       </c>
       <c r="AR41" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS41" s="48">
         <v>1</v>
@@ -4664,7 +4691,7 @@
         <v>Consumer Sentiment Index</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="11" t="str">
         <f>'[1]List of Variables'!$C41</f>
@@ -4688,7 +4715,7 @@
         <v>40</v>
       </c>
       <c r="AR42" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS42" s="48">
         <v>1</v>
@@ -4706,7 +4733,7 @@
         <v>Industrial Sentiment Index</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="11" t="str">
         <f>'[1]List of Variables'!$C42</f>
@@ -4730,7 +4757,7 @@
         <v>41</v>
       </c>
       <c r="AR43" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS43" s="48">
         <v>0</v>
@@ -4748,7 +4775,7 @@
         <v>Commercial Sentiment Index</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="11" t="str">
         <f>'[1]List of Variables'!$C43</f>
@@ -4772,7 +4799,7 @@
         <v>42</v>
       </c>
       <c r="AR44" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS44" s="48">
         <v>0</v>
@@ -4814,7 +4841,7 @@
         <v>43</v>
       </c>
       <c r="AR45" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS45" s="48">
         <v>0</v>
@@ -4856,7 +4883,7 @@
         <v>44</v>
       </c>
       <c r="AR46" s="48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS46" s="48">
         <v>0</v>
@@ -4898,7 +4925,7 @@
         <v>45</v>
       </c>
       <c r="AR47" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS47" s="48">
         <v>0</v>
@@ -4940,7 +4967,7 @@
         <v>46</v>
       </c>
       <c r="AR48" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS48" s="48">
         <v>0</v>
@@ -4982,7 +5009,7 @@
         <v>47</v>
       </c>
       <c r="AR49" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS49" s="48">
         <v>0</v>
@@ -5024,7 +5051,7 @@
         <v>48</v>
       </c>
       <c r="AR50" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS50" s="48">
         <v>0</v>
@@ -5066,7 +5093,7 @@
         <v>49</v>
       </c>
       <c r="AR51" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS51" s="48">
         <v>0</v>
@@ -5108,7 +5135,7 @@
         <v>50</v>
       </c>
       <c r="AR52" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS52" s="48">
         <v>0</v>
@@ -5150,7 +5177,7 @@
         <v>51</v>
       </c>
       <c r="AR53" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS53" s="48">
         <v>0</v>
@@ -5168,7 +5195,7 @@
         <v>Colombian Food Price Index</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="11" t="str">
         <f>'[1]List of Variables'!$C53</f>
@@ -5192,7 +5219,7 @@
         <v>52</v>
       </c>
       <c r="AR54" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS54" s="48">
         <v>1</v>
@@ -5210,7 +5237,7 @@
         <v>Colombian Food and Regulated Price Index</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="11" t="str">
         <f>'[1]List of Variables'!$C54</f>
@@ -5234,7 +5261,7 @@
         <v>53</v>
       </c>
       <c r="AR55" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS55" s="48">
         <v>1</v>
@@ -5276,7 +5303,7 @@
         <v>54</v>
       </c>
       <c r="AR56" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS56" s="48">
         <v>1</v>
@@ -5318,7 +5345,7 @@
         <v>55</v>
       </c>
       <c r="AR57" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS57" s="48">
         <v>1</v>
@@ -5336,7 +5363,7 @@
         <v>Global Supply Chain Pressure Index</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D58" s="11" t="str">
         <f>'[1]List of Variables'!$C57</f>
@@ -5360,7 +5387,7 @@
         <v>56</v>
       </c>
       <c r="AR58" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS58" s="48">
         <v>1</v>
@@ -5402,7 +5429,7 @@
         <v>57</v>
       </c>
       <c r="AR59" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS59" s="48">
         <v>1</v>
@@ -5420,7 +5447,7 @@
         <v>Food International Prices</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="11" t="str">
         <f>'[1]List of Variables'!$C59</f>
@@ -5444,7 +5471,7 @@
         <v>58</v>
       </c>
       <c r="AR60" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS60" s="48">
         <v>0</v>
@@ -5462,7 +5489,7 @@
         <v>Niño 3.4 Sea Surface Temperature Anomalies</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="D61" s="11" t="str">
         <f>'[1]List of Variables'!$C60</f>
@@ -5486,7 +5513,7 @@
         <v>59</v>
       </c>
       <c r="AR61" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS61" s="48">
         <v>0</v>
@@ -5504,7 +5531,7 @@
         <v>New Houses Price Index</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="11" t="str">
         <f>'[1]List of Variables'!$C61</f>
@@ -5528,7 +5555,7 @@
         <v>60</v>
       </c>
       <c r="AR62" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS62" s="48">
         <v>1</v>
@@ -5546,7 +5573,7 @@
         <v>Total Loans Rate</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="11" t="str">
         <f>'[1]List of Variables'!$C62</f>
@@ -5570,7 +5597,7 @@
         <v>61</v>
       </c>
       <c r="AR63" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS63" s="48">
         <v>0</v>
@@ -5612,7 +5639,7 @@
         <v>62</v>
       </c>
       <c r="AR64" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS64" s="48">
         <v>2</v>
@@ -5654,7 +5681,7 @@
         <v>63</v>
       </c>
       <c r="AR65" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS65" s="48">
         <v>0</v>
@@ -5696,7 +5723,7 @@
         <v>64</v>
       </c>
       <c r="AR66" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS66" s="48">
         <v>1</v>
@@ -5738,7 +5765,7 @@
         <v>65</v>
       </c>
       <c r="AR67" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS67" s="48">
         <v>1</v>
@@ -5780,7 +5807,7 @@
         <v>66</v>
       </c>
       <c r="AR68" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS68" s="48">
         <v>0</v>
@@ -5822,7 +5849,7 @@
         <v>67</v>
       </c>
       <c r="AR69" s="48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS69" s="48">
         <v>1</v>
@@ -5864,7 +5891,7 @@
         <v>68</v>
       </c>
       <c r="AR70" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS70" s="48">
         <v>1</v>
@@ -5906,7 +5933,7 @@
         <v>69</v>
       </c>
       <c r="AR71" s="48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AS71" s="48">
         <v>0</v>
@@ -5948,7 +5975,7 @@
         <v>70</v>
       </c>
       <c r="AR72" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS72" s="48">
         <v>0</v>
@@ -5971,13 +5998,13 @@
     </row>
     <row r="74" spans="2:48" ht="19">
       <c r="B74" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D74" s="8"/>
     </row>
     <row r="75" spans="2:48" ht="19">
       <c r="B75" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="8"/>
     </row>
@@ -6022,11 +6049,757 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADB81A8-6682-094B-9E6B-951AE63DD90F}">
+  <dimension ref="A3:U33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:21">
+      <c r="C3" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5">
+        <v>0.35368569999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.54252480000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.56720689999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.86119999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="81"/>
+      <c r="B6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6">
+        <v>0.27842240000000001</v>
+      </c>
+      <c r="D6">
+        <v>5.3129999999999997E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.44513849999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.42059649999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.58479999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17" thickBot="1">
+      <c r="A7" s="81"/>
+      <c r="B7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0.3394761</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.51125909999999997</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0.57786409999999999</v>
+      </c>
+      <c r="M7" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="R7" s="77" t="s">
+        <v>206</v>
+      </c>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+    </row>
+    <row r="8" spans="1:21" ht="17" thickTop="1">
+      <c r="A8" s="81"/>
+      <c r="B8" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8">
+        <f>C6/C7</f>
+        <v>0.82015317131309096</v>
+      </c>
+      <c r="F8">
+        <f>F6/F7</f>
+        <v>0.8706710550482134</v>
+      </c>
+      <c r="I8">
+        <f>I6/I7</f>
+        <v>0.72784673766721275</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="B9" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9">
+        <f>C5/C7</f>
+        <v>1.0418574385648944</v>
+      </c>
+      <c r="F9">
+        <f>F5/F7</f>
+        <v>1.061154314906082</v>
+      </c>
+      <c r="I9">
+        <f>I5/I7</f>
+        <v>0.98155760151911142</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="M10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="40">
+        <f>C8</f>
+        <v>0.82015317131309096</v>
+      </c>
+      <c r="O10" s="40">
+        <f>F8</f>
+        <v>0.8706710550482134</v>
+      </c>
+      <c r="P10" s="40">
+        <f>I8</f>
+        <v>0.72784673766721275</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="18">
+        <f>C25</f>
+        <v>0.81442836161460874</v>
+      </c>
+      <c r="T10" s="18">
+        <f>F25</f>
+        <v>0.78299919456122868</v>
+      </c>
+      <c r="U10" s="18">
+        <f>I25</f>
+        <v>0.81728956359245863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11">
+        <v>0.32822170000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.79379999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.47902830000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.4617</v>
+      </c>
+      <c r="I11">
+        <v>0.50232469999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.4723</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="24">
+        <f>C14</f>
+        <v>0.90067901687335283</v>
+      </c>
+      <c r="O11" s="18">
+        <f>F14</f>
+        <v>0.95337569541549494</v>
+      </c>
+      <c r="P11" s="18">
+        <f>I14</f>
+        <v>1.1750643447135753</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="42">
+        <f>C31</f>
+        <v>0.72015229635982403</v>
+      </c>
+      <c r="T11" s="40">
+        <f>F31</f>
+        <v>0.72006383912960037</v>
+      </c>
+      <c r="U11" s="40">
+        <f>I31</f>
+        <v>0.73297911032580587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="17" thickBot="1">
+      <c r="A12" s="81"/>
+      <c r="B12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12">
+        <v>0.305759</v>
+      </c>
+      <c r="D12">
+        <v>1.702E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.48742200000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.66620000000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.67902750000000001</v>
+      </c>
+      <c r="J12">
+        <v>0.31630000000000003</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="81"/>
+      <c r="B13" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0.3394761</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.51125909999999997</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0.57786409999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="81"/>
+      <c r="B14" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14">
+        <f>C12/C13</f>
+        <v>0.90067901687335283</v>
+      </c>
+      <c r="F14">
+        <f>F12/F13</f>
+        <v>0.95337569541549494</v>
+      </c>
+      <c r="I14">
+        <f>I12/I13</f>
+        <v>1.1750643447135753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="81"/>
+      <c r="B15" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <f>C11/C13</f>
+        <v>0.96684773979670435</v>
+      </c>
+      <c r="F15">
+        <f>F11/F13</f>
+        <v>0.93695799253255352</v>
+      </c>
+      <c r="I15">
+        <f>I11/I13</f>
+        <v>0.86927826109979833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="81"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="C20" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+    </row>
+    <row r="21" spans="1:21" ht="17" thickBot="1">
+      <c r="C21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="R21" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+    </row>
+    <row r="22" spans="1:21" ht="17" thickTop="1">
+      <c r="A22" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>4.2633169999999998</v>
+      </c>
+      <c r="D22">
+        <v>7.1279999999999996E-2</v>
+      </c>
+      <c r="F22">
+        <v>4.3750140000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.1152</v>
+      </c>
+      <c r="I22">
+        <v>4.1920729999999997</v>
+      </c>
+      <c r="J22">
+        <v>0.16</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="81"/>
+      <c r="B23" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23">
+        <v>4.5354530000000004</v>
+      </c>
+      <c r="D23">
+        <v>0.1628</v>
+      </c>
+      <c r="F23">
+        <v>4.4669829999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="I23">
+        <v>4.498723</v>
+      </c>
+      <c r="J23">
+        <v>0.4</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="81"/>
+      <c r="B24" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="34">
+        <v>5.5688789999999999</v>
+      </c>
+      <c r="F24" s="36">
+        <v>5.7049649999999996</v>
+      </c>
+      <c r="I24" s="36">
+        <v>5.5044420000000001</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24" s="18">
+        <f>C9</f>
+        <v>1.0418574385648944</v>
+      </c>
+      <c r="O24" s="18">
+        <f>F9</f>
+        <v>1.061154314906082</v>
+      </c>
+      <c r="P24" s="18">
+        <f>I9</f>
+        <v>0.98155760151911142</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="17">
+        <f>C26</f>
+        <v>0.76556107611603696</v>
+      </c>
+      <c r="T24" s="18">
+        <f>F26</f>
+        <v>0.76687832440689829</v>
+      </c>
+      <c r="U24" s="18">
+        <f>I26</f>
+        <v>0.7615800111982286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="B25" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25">
+        <f>C23/C24</f>
+        <v>0.81442836161460874</v>
+      </c>
+      <c r="F25">
+        <f>F23/F24</f>
+        <v>0.78299919456122868</v>
+      </c>
+      <c r="I25">
+        <f>I23/I24</f>
+        <v>0.81728956359245863</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>C15</f>
+        <v>0.96684773979670435</v>
+      </c>
+      <c r="O25" s="40">
+        <f>F15</f>
+        <v>0.93695799253255352</v>
+      </c>
+      <c r="P25" s="40">
+        <f>I15</f>
+        <v>0.86927826109979833</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="42">
+        <f>C32</f>
+        <v>0.73326929890198733</v>
+      </c>
+      <c r="T25" s="42">
+        <f>F32</f>
+        <v>0.73466305227113571</v>
+      </c>
+      <c r="U25" s="40">
+        <f>I32</f>
+        <v>0.72915855957788278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="17" thickBot="1">
+      <c r="B26" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26">
+        <f>C22/C24</f>
+        <v>0.76556107611603696</v>
+      </c>
+      <c r="F26">
+        <f>F22/F24</f>
+        <v>0.76687832440689829</v>
+      </c>
+      <c r="I26">
+        <f>I22/I24</f>
+        <v>0.7615800111982286</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28">
+        <v>4.083488</v>
+      </c>
+      <c r="D28">
+        <v>4.2189999999999998E-2</v>
+      </c>
+      <c r="F28">
+        <v>4.1912269999999996</v>
+      </c>
+      <c r="G28">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="I28">
+        <v>4.013611</v>
+      </c>
+      <c r="J28">
+        <v>0.1908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="81"/>
+      <c r="B29" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29">
+        <v>4.0104410000000001</v>
+      </c>
+      <c r="D29">
+        <v>3.9390000000000001E-2</v>
+      </c>
+      <c r="F29">
+        <v>4.107939</v>
+      </c>
+      <c r="G29">
+        <v>5.0470000000000001E-2</v>
+      </c>
+      <c r="I29">
+        <v>4.0346409999999997</v>
+      </c>
+      <c r="J29">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="81"/>
+      <c r="B30" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="34">
+        <v>5.5688789999999999</v>
+      </c>
+      <c r="F30" s="36">
+        <v>5.7049649999999996</v>
+      </c>
+      <c r="I30" s="36">
+        <v>5.5044420000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="81"/>
+      <c r="B31" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31">
+        <f>C29/C30</f>
+        <v>0.72015229635982403</v>
+      </c>
+      <c r="F31">
+        <f>F29/F30</f>
+        <v>0.72006383912960037</v>
+      </c>
+      <c r="I31">
+        <f>I29/I30</f>
+        <v>0.73297911032580587</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="81"/>
+      <c r="B32" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32">
+        <f>C28/C30</f>
+        <v>0.73326929890198733</v>
+      </c>
+      <c r="F32">
+        <f>F28/F30</f>
+        <v>0.73466305227113571</v>
+      </c>
+      <c r="I32">
+        <f>I28/I30</f>
+        <v>0.72915855957788278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="A11:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC262110-74E5-B94F-8048-06AB921D361A}">
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6037,61 +6810,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="K1" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="K1" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="35" customFormat="1">
@@ -6500,7 +7273,7 @@
     </row>
     <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -6509,7 +7282,7 @@
       </c>
       <c r="D16" s="9"/>
       <c r="F16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9">
@@ -6518,7 +7291,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="K16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9">
@@ -6616,7 +7389,7 @@
     </row>
     <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
@@ -6625,7 +7398,7 @@
       </c>
       <c r="D20" s="9"/>
       <c r="F20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9">
@@ -6634,7 +7407,7 @@
       </c>
       <c r="I20" s="9"/>
       <c r="K20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9">
@@ -7051,7 +7824,7 @@
     </row>
     <row r="34" spans="1:14" s="35" customFormat="1">
       <c r="A34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="34">
         <v>0.29624240000000002</v>
@@ -7064,7 +7837,7 @@
         <v>2.5440000000000001E-2</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="35">
         <v>0.53937950000000001</v>
@@ -7074,7 +7847,7 @@
         <v>1.0550022483707382</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="35">
         <v>0.82135570000000002</v>
@@ -7127,12 +7900,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB00AE-548F-0F44-814A-D56B6039FE9C}">
-  <dimension ref="C1:M18"/>
+  <dimension ref="C1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7145,204 +7918,196 @@
     <col min="9" max="9" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="17" thickBot="1"/>
-    <row r="2" spans="3:13" ht="17" thickBot="1">
-      <c r="C2" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-    </row>
-    <row r="3" spans="3:13" ht="17" thickTop="1">
-      <c r="C3" s="62"/>
-      <c r="D3" s="76" t="s">
+    <row r="1" spans="3:9" ht="17" thickBot="1"/>
+    <row r="2" spans="3:9" ht="17" thickBot="1">
+      <c r="C2" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+    </row>
+    <row r="3" spans="3:9" ht="17" thickTop="1">
+      <c r="C3" s="54"/>
+      <c r="D3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="72">
+        <v>0.78132333910988139</v>
+      </c>
+      <c r="F4" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-    </row>
-    <row r="4" spans="3:13">
-      <c r="C4" s="81" t="s">
+      <c r="G4" s="59">
+        <v>0.87378043735554056</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0.85993159983463241</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="17" thickBot="1">
+      <c r="C5" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="83">
-        <v>0.78132333910988139</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="70">
-        <v>0.87378043735554056</v>
-      </c>
-      <c r="H4" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="74">
-        <v>0.85993159983463241</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" ht="17" thickBot="1">
-      <c r="C5" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="73">
         <v>0.76926534739853558</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="62">
         <v>0.85042300469566223</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="64">
         <v>0.85176341634650776</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:9">
       <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="3:9" ht="13" customHeight="1">
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="3:13" ht="13" customHeight="1">
-      <c r="C7" s="60" t="s">
+    </row>
+    <row r="11" spans="3:9" ht="17" thickBot="1"/>
+    <row r="12" spans="3:9" ht="17" thickBot="1">
+      <c r="C12" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+    </row>
+    <row r="13" spans="3:9" ht="17" thickTop="1">
+      <c r="C13" s="54"/>
+      <c r="D13" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="72">
+        <v>0.70224312648919107</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="72">
+        <v>0.68692796537752643</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="63">
+        <v>0.69103553094028414</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="17" thickBot="1">
+      <c r="C15" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="73">
+        <v>0.70369225116940048</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="76">
+        <v>0.68785855829089226</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="64">
+        <v>0.68584935584751372</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="75" t="s">
         <v>202</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="3:13">
-      <c r="C8" s="86" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="17" thickBot="1"/>
-    <row r="12" spans="3:13" ht="17" thickBot="1">
-      <c r="C12" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
-    </row>
-    <row r="13" spans="3:13" ht="17" thickTop="1">
-      <c r="C13" s="62"/>
-      <c r="D13" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="80" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="63" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="83">
-        <v>0.70224312648919107</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="83">
-        <v>0.68692796537752643</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="74">
-        <v>0.69103553094028414</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" ht="17" thickBot="1">
-      <c r="C15" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="84">
-        <v>0.70369225116940048</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="87">
-        <v>0.68785855829089226</v>
-      </c>
-      <c r="H15" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="75">
-        <v>0.68584935584751372</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="60" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="86" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +8124,7 @@
   <dimension ref="A2:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7370,19 +8135,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>54</v>
@@ -7400,7 +8165,7 @@
         <v>58</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" hidden="1">
@@ -7412,7 +8177,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7420,13 +8185,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7434,13 +8199,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7448,13 +8213,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34">
@@ -7462,13 +8227,13 @@
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7476,7 +8241,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>62</v>
@@ -7487,16 +8252,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34" hidden="1">
@@ -7505,10 +8270,10 @@
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1">
@@ -7519,12 +8284,12 @@
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7552,17 +8317,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="17" thickBot="1">
-      <c r="B2" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="77"/>
     </row>
     <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="58" customHeight="1">
@@ -7570,7 +8335,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="68">
@@ -7578,15 +8343,15 @@
         <v>37</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="51">
       <c r="B6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="51">
@@ -7594,7 +8359,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="68">
@@ -7602,7 +8367,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="51">
@@ -7610,15 +8375,15 @@
         <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="68">
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="51">
@@ -7626,7 +8391,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -7669,7 +8434,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" thickBot="1">
@@ -7678,7 +8443,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7693,14 +8458,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77DE983-1874-3F4C-A17C-C47B440A1152}">
   <dimension ref="B2:Q93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.33203125" customWidth="1"/>
@@ -7708,44 +8474,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="I2" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="N2" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="B2" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="I2" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="N2" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -7944,7 +8710,7 @@
         <v>0.89605885573869248</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="18">
         <f>'RMSE TRM'!C16</f>
@@ -8006,7 +8772,7 @@
         <v>0.68584935584751372</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="24">
         <f>'RMSE TRM'!C34</f>
@@ -8121,7 +8887,7 @@
         <v>0.71676220768608334</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="24">
         <f>'RMSE TRM'!C20</f>
@@ -8334,28 +9100,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
+      <c r="B23" s="77" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
+      <c r="N24" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -8372,11 +9138,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="55" t="s">
+      <c r="O25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -8394,12 +9160,12 @@
         <f>'RMSE TRM (I(0))'!M7</f>
         <v>7.1042332719647154</v>
       </c>
-      <c r="I26" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="I26" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -8430,11 +9196,11 @@
         <v>0.71412270308234693</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -8574,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O31" s="18">
         <f>'RMSE TRM (I(0))'!C34</f>
@@ -8591,7 +9357,7 @@
     </row>
     <row r="32" spans="2:17">
       <c r="I32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="18">
         <f>'RMSE TRM (I(0))'!C16</f>
@@ -8693,7 +9459,7 @@
     <row r="36" spans="2:17">
       <c r="B36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="18">
         <f>'RMSE TRM (I(0))'!C20</f>
@@ -8915,22 +9681,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -9143,6 +9909,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="B23:E23"/>
@@ -9151,12 +9923,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9166,8 +9932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1907A93-DFA4-DE49-BD81-CE15FB82F195}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9177,29 +9943,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="K1" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
         <v>96</v>
-      </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="Q1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -9207,42 +9973,42 @@
         <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F2" t="s">
         <v>53</v>
       </c>
       <c r="G2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
       </c>
       <c r="K2" t="s">
         <v>53</v>
       </c>
       <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" t="s">
         <v>94</v>
       </c>
-      <c r="M2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" t="s">
-        <v>95</v>
-      </c>
       <c r="P2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q2" s="85">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="74">
         <v>3.1786943227619227</v>
       </c>
       <c r="R2">
@@ -9305,7 +10071,7 @@
       <c r="F4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="53">
         <v>3.9478249999999999</v>
       </c>
       <c r="H4" s="34">
@@ -9791,7 +10557,7 @@
     </row>
     <row r="16" spans="1:18" s="35" customFormat="1">
       <c r="A16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="34">
         <v>5.4664859999999997</v>
@@ -9805,7 +10571,7 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="34">
         <v>3.987082</v>
@@ -9819,7 +10585,7 @@
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="34">
         <v>4.0434239999999999</v>
@@ -10011,7 +10777,7 @@
     </row>
     <row r="20" spans="1:33" s="35" customFormat="1">
       <c r="A20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="34">
         <v>3.923702</v>
@@ -10025,7 +10791,7 @@
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="34">
         <v>3.9453529999999999</v>
@@ -10039,7 +10805,7 @@
       </c>
       <c r="J20" s="34"/>
       <c r="K20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="34">
         <v>3.916531</v>
@@ -10595,7 +11361,7 @@
     </row>
     <row r="34" spans="1:22" s="35" customFormat="1">
       <c r="A34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="34">
         <v>3.9964040000000001</v>
@@ -10609,7 +11375,7 @@
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="34">
         <v>3.971222</v>
@@ -10623,7 +11389,7 @@
       </c>
       <c r="J34" s="34"/>
       <c r="K34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="34">
         <v>4.2249850000000002</v>
@@ -10802,7 +11568,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10813,61 +11579,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="K1" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="K1" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1">
@@ -11322,7 +12088,7 @@
     </row>
     <row r="16" spans="1:14" hidden="1">
       <c r="A16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -11331,14 +12097,14 @@
       </c>
       <c r="D16" s="9"/>
       <c r="F16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
@@ -11422,7 +12188,7 @@
     </row>
     <row r="20" spans="1:14" hidden="1">
       <c r="A20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9">
@@ -11431,14 +12197,14 @@
       </c>
       <c r="D20" s="9"/>
       <c r="F20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
@@ -11828,7 +12594,7 @@
     </row>
     <row r="34" spans="1:14" s="35" customFormat="1">
       <c r="A34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="34">
         <v>4.2747659999999996</v>
@@ -11842,7 +12608,7 @@
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="34">
         <v>4.0229189999999999</v>
@@ -11856,7 +12622,7 @@
       </c>
       <c r="J34" s="34"/>
       <c r="K34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="34">
         <v>3.8037649999999998</v>
@@ -11926,8 +12692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F432959-ABC2-8F4B-9F71-0EF47A79DE53}">
   <dimension ref="B2:Q93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E2" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" topLeftCell="J2" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11939,44 +12705,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="I2" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="N2" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="B2" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="I2" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="N2" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -12039,7 +12805,7 @@
         <f>'RMSE Inf'!C13</f>
         <v>0.77972528846655176</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="18">
         <f>'RMSE Inf'!H13</f>
         <v>0.85498957377971363</v>
       </c>
@@ -12174,7 +12940,7 @@
         <v>1.0145868206728883</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="24">
         <f>'RMSE Inf'!C16</f>
@@ -12236,7 +13002,7 @@
         <v>0.86020934679970595</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O9" s="46">
         <f>'RMSE Inf'!C34</f>
@@ -12351,7 +13117,7 @@
         <v>0.88824258160352931</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="24">
         <f>'RMSE Inf'!C20</f>
@@ -12562,28 +13328,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
+      <c r="B23" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
+      <c r="N24" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -12600,11 +13366,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="55" t="s">
+      <c r="O25" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -12622,12 +13388,12 @@
         <f>'RMSE Inf I(0)'!M7</f>
         <v>0.91199937840056167</v>
       </c>
-      <c r="I26" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="I26" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -12658,11 +13424,11 @@
         <v>0.95687515455623562</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="55" t="s">
+      <c r="J27" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -12802,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O31" s="42">
         <f>'RMSE Inf I(0)'!C34</f>
@@ -12819,7 +13585,7 @@
     </row>
     <row r="32" spans="2:17">
       <c r="I32" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J32" s="31">
         <f>'RMSE Inf I(0)'!C16</f>
@@ -12921,7 +13687,7 @@
     <row r="36" spans="2:17">
       <c r="B36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J36" s="31">
         <f>'RMSE Inf I(0)'!C20</f>
@@ -13143,22 +13909,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -13371,6 +14137,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I26:L26"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
@@ -13380,11 +14151,6 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13410,8 +14176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078143E7-9F3A-BB46-80B9-E96FCBC32625}">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13422,29 +14188,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="K1" s="57" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="K1" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
         <v>96</v>
-      </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="Q1" t="s">
-        <v>192</v>
-      </c>
-      <c r="R1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -13452,42 +14218,42 @@
         <v>53</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="P2" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q2" s="85">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="74">
         <v>0.24692823467366906</v>
       </c>
       <c r="R2">
@@ -13994,7 +14760,7 @@
     </row>
     <row r="16" spans="1:18" s="35" customFormat="1">
       <c r="A16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="34">
         <v>0.26511279999999998</v>
@@ -14007,7 +14773,7 @@
         <v>2.8129999999999999E-2</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="34">
         <v>0.51081299999999996</v>
@@ -14020,7 +14786,7 @@
         <v>0.98860000000000003</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L16" s="34">
         <v>0.61953199999999997</v>
@@ -14206,7 +14972,7 @@
     </row>
     <row r="20" spans="1:38" s="35" customFormat="1">
       <c r="A20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="34">
         <v>0.26557950000000002</v>
@@ -14219,7 +14985,7 @@
         <v>4.0160000000000001E-2</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="34">
         <v>0.53186940000000005</v>
@@ -14232,7 +14998,7 @@
         <v>0.55579999999999996</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="34">
         <v>0.53691560000000005</v>
@@ -14759,7 +15525,7 @@
     </row>
     <row r="34" spans="1:23" s="35" customFormat="1">
       <c r="A34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" s="34">
         <v>0.27799610000000002</v>
@@ -14772,7 +15538,7 @@
         <v>0.12690000000000001</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G34" s="35">
         <v>0.48418489999999997</v>
@@ -14785,7 +15551,7 @@
         <v>0.42099999999999999</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="35">
         <v>0.52741879999999997</v>

--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C85551-FD2D-7B4D-BDD7-9309C12681B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6828DA2D-D992-C94D-A145-7EBF3ABC05EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="460" windowWidth="19980" windowHeight="13820" firstSheet="2" activeTab="9" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="10920" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="6" activeTab="12" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -18,21 +18,22 @@
     <sheet name="F.Comb" sheetId="5" state="hidden" r:id="rId3"/>
     <sheet name="Res.Exc" sheetId="1" r:id="rId4"/>
     <sheet name="RMSE TRM" sheetId="7" r:id="rId5"/>
-    <sheet name="RMSE TRM (I(0))" sheetId="8" r:id="rId6"/>
-    <sheet name="Res.Inf" sheetId="2" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="10" state="hidden" r:id="rId8"/>
-    <sheet name="RMSE Inf" sheetId="6" r:id="rId9"/>
-    <sheet name="With Scaling" sheetId="12" r:id="rId10"/>
-    <sheet name="RMSE Inf I(0)" sheetId="9" r:id="rId11"/>
-    <sheet name="Best Models" sheetId="11" r:id="rId12"/>
+    <sheet name="Best Models" sheetId="11" r:id="rId6"/>
+    <sheet name="RMSE TRM (I(0))" sheetId="8" r:id="rId7"/>
+    <sheet name="Res.Inf" sheetId="2" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="RMSE Inf" sheetId="6" r:id="rId10"/>
+    <sheet name="With Scaling" sheetId="12" r:id="rId11"/>
+    <sheet name="RMSE Inf I(0)" sheetId="9" r:id="rId12"/>
+    <sheet name="Robustness Ex." sheetId="13" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Variable List'!$F$2:$F$72</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="220">
   <si>
     <t>Models</t>
   </si>
@@ -736,16 +737,29 @@
   <si>
     <t>Banco Central de la República Dominicana</t>
   </si>
+  <si>
+    <t xml:space="preserve">Monthly Inflation Rate (CPI) </t>
+  </si>
+  <si>
+    <t>KNN*</t>
+  </si>
+  <si>
+    <t>For one-month ahead forecasts, the RMSFE ratio of the EMEE was 0.5448.</t>
+  </si>
+  <si>
+    <t>For one-month ahead forecasts, the RMSFE ratio of the EMEE was 0.4557.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
     <numFmt numFmtId="167" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1101,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1303,6 +1317,18 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1315,9 +1341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1326,6 +1349,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,7 +1413,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34117"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34719"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1480,6 +1519,141 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>711201</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>26116</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>127001</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>13416</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Imagen 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4769FC9-C6A0-7C08-2796-F51AF814FB60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45492"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="10858501" y="2070816"/>
+              <a:ext cx="8496300" cy="1460500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>254000</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Imagen 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39EF0C3-DAF0-97FA-FC5C-D9F12CBC870F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45493"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="10972800" y="215900"/>
+              <a:ext cx="8509000" cy="1435100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
@@ -1504,7 +1678,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s36041"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47485"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1569,7 +1743,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s36042"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47486"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1609,12 +1783,281 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>287867</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>151761</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Imagen 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B233CB3-5ABE-9C0D-6D60-E5AF14FA9C9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56516"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="12115800" y="203200"/>
+              <a:ext cx="3606800" cy="1405467"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>279401</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>228601</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Imagen 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B36C8B6-1E90-8CCE-1EF9-E705015DA5E0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$14:$E$20" spid="_x0000_s56517"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="12014200" y="2336800"/>
+              <a:ext cx="3632200" cy="1498600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Imagen 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3EDC89-2D62-3149-C511-6495D78F8B9F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$2:$E$12" spid="_x0000_s56518"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="16192500" y="203200"/>
+              <a:ext cx="3606800" cy="2755900"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Imagen 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EA7210-59D5-B117-AC64-3065BA81117D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$B$14:$E$23" spid="_x0000_s56519"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="16192500" y="3365500"/>
+              <a:ext cx="3606800" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="GLOBAL RAW"/>
       <sheetName val="SURVEY (INF) RAW"/>
+      <sheetName val="EX2017_2020"/>
       <sheetName val="GOOGLE RAW"/>
       <sheetName val="SURVEY (TRM) RAW"/>
       <sheetName val="SURVEYRES (M)"/>
@@ -1666,37 +2109,38 @@
       <sheetName val="DBEXC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
         <row r="2">
           <cell r="A2" t="str">
             <v>Headline Consumer Price index</v>
@@ -2678,26 +3122,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3002,8 +3446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41A097B-664F-A24A-B66D-4A21B3ABF2AA}">
   <dimension ref="B1:AV85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AA51" zoomScale="92" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="AO61" sqref="AO61"/>
+    <sheetView showGridLines="0" topLeftCell="B59" zoomScale="92" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6049,11 +6493,1633 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078143E7-9F3A-BB46-80B9-E96FCBC32625}">
+  <dimension ref="A1:AL61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="3" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="F1" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="K1" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="Q1" t="s">
+        <v>191</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q2" s="74">
+        <v>0.24692823467366906</v>
+      </c>
+      <c r="R2">
+        <f>Q2/B3</f>
+        <v>0.72738032124697161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="35" customFormat="1">
+      <c r="A3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="34">
+        <v>0.3394761</v>
+      </c>
+      <c r="C3" s="34">
+        <f>B3/$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="F3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0.51125909999999997</v>
+      </c>
+      <c r="H3" s="34">
+        <f>G3/$G$3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="K3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="34">
+        <v>0.57786409999999999</v>
+      </c>
+      <c r="M3" s="34">
+        <f>L3/$L$3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="34"/>
+    </row>
+    <row r="4" spans="1:18" s="35" customFormat="1">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="34">
+        <v>0.49962489999999998</v>
+      </c>
+      <c r="C4" s="34">
+        <f>B4/$B$3</f>
+        <v>1.4717527979141978</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="F4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.5211403</v>
+      </c>
+      <c r="H4" s="34">
+        <f>G4/$G$3</f>
+        <v>1.0193271865478777</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="K4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="34">
+        <v>0.51739500000000005</v>
+      </c>
+      <c r="M4" s="34">
+        <f t="shared" ref="M4:M35" si="0">L4/$L$3</f>
+        <v>0.89535757628826584</v>
+      </c>
+      <c r="N4" s="34">
+        <v>0.6109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="35" customFormat="1">
+      <c r="A5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34">
+        <v>0.32012400000000002</v>
+      </c>
+      <c r="C5" s="34">
+        <f t="shared" ref="C5:C33" si="1">B5/$B$3</f>
+        <v>0.94299421962253016</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="35">
+        <v>0.53513310000000003</v>
+      </c>
+      <c r="H5" s="34">
+        <f>G5/$G$3</f>
+        <v>1.0466964793389497</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="K5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="34">
+        <v>0.52536720000000003</v>
+      </c>
+      <c r="M5" s="34">
+        <f>L5/$L$3</f>
+        <v>0.90915355357773575</v>
+      </c>
+      <c r="N5" s="34">
+        <v>0.5958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="35" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="34">
+        <v>0.36147489999999999</v>
+      </c>
+      <c r="C6" s="34">
+        <f>B6/$B$3</f>
+        <v>1.0648022055160877</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="F6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0.5047334</v>
+      </c>
+      <c r="H6" s="34">
+        <f t="shared" ref="H6:H8" si="2">G6/$G$3</f>
+        <v>0.98723602181359715</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="34">
+        <v>0.58629330000000002</v>
+      </c>
+      <c r="M6" s="34">
+        <f t="shared" si="0"/>
+        <v>1.0145868206728883</v>
+      </c>
+      <c r="N6" s="34"/>
+    </row>
+    <row r="7" spans="1:18" s="35" customFormat="1">
+      <c r="A7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="34">
+        <v>0.28532079999999999</v>
+      </c>
+      <c r="C7" s="34">
+        <f t="shared" si="1"/>
+        <v>0.84047389492220503</v>
+      </c>
+      <c r="D7" s="34">
+        <v>5.3830000000000003E-2</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0.56010360000000003</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" si="2"/>
+        <v>1.0955376637794811</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="K7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="34">
+        <v>1.2823439999999999</v>
+      </c>
+      <c r="M7" s="34">
+        <f t="shared" si="0"/>
+        <v>2.2191099948932629</v>
+      </c>
+      <c r="N7" s="34"/>
+    </row>
+    <row r="8" spans="1:18" s="35" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0.35581940000000001</v>
+      </c>
+      <c r="C8" s="34">
+        <f t="shared" si="1"/>
+        <v>1.0481427116665945</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="F8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0.52864900000000004</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="2"/>
+        <v>1.0340138688973948</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="K8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="34">
+        <v>1.267862</v>
+      </c>
+      <c r="M8" s="34">
+        <f t="shared" si="0"/>
+        <v>2.194048739141262</v>
+      </c>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:18" s="35" customFormat="1">
+      <c r="A9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="34">
+        <v>0.31717079999999997</v>
+      </c>
+      <c r="C9" s="34">
+        <f t="shared" si="1"/>
+        <v>0.93429493269187425</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.44330000000000003</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0.62927569999999999</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" ref="H9:H35" si="3">G9/$G$3</f>
+        <v>1.2308352066496226</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="K9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="34">
+        <v>0.81156689999999998</v>
+      </c>
+      <c r="M9" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4044251927053437</v>
+      </c>
+      <c r="N9" s="34"/>
+    </row>
+    <row r="10" spans="1:18" s="35" customFormat="1">
+      <c r="A10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="34">
+        <v>0.29268309999999997</v>
+      </c>
+      <c r="C10" s="34">
+        <f>B10/$B$3</f>
+        <v>0.8621611359385829</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0.1933</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0.50036250000000004</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="3"/>
+        <v>0.97868673633388648</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="34">
+        <v>0.5132835</v>
+      </c>
+      <c r="M10" s="34">
+        <f t="shared" si="0"/>
+        <v>0.88824258160352931</v>
+      </c>
+      <c r="N10" s="34">
+        <v>0.57889999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="35" customFormat="1">
+      <c r="A11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="34">
+        <v>0.26524059999999999</v>
+      </c>
+      <c r="C11" s="34">
+        <f t="shared" si="1"/>
+        <v>0.78132333910988139</v>
+      </c>
+      <c r="D11" s="34">
+        <v>3.909E-2</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0.47005530000000001</v>
+      </c>
+      <c r="H11" s="34">
+        <f>G11/$G$3</f>
+        <v>0.91940720468349613</v>
+      </c>
+      <c r="I11" s="34">
+        <v>7.2349999999999998E-2</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="34">
+        <v>0.52512829999999999</v>
+      </c>
+      <c r="M11" s="34">
+        <f t="shared" si="0"/>
+        <v>0.908740134574894</v>
+      </c>
+      <c r="N11" s="34">
+        <v>0.36270000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="35" customFormat="1">
+      <c r="A12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="34">
+        <v>0.4891297</v>
+      </c>
+      <c r="C12" s="34">
+        <f t="shared" si="1"/>
+        <v>1.4408369248969219</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="F12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="34">
+        <v>3.7484280000000001</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="3"/>
+        <v>7.3317580068501478</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="K12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="34">
+        <v>6.1136609999999996</v>
+      </c>
+      <c r="M12" s="34">
+        <f t="shared" si="0"/>
+        <v>10.579755689962397</v>
+      </c>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1">
+      <c r="A13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="34">
+        <v>0.26469809999999999</v>
+      </c>
+      <c r="C13" s="34">
+        <f t="shared" si="1"/>
+        <v>0.77972528846655176</v>
+      </c>
+      <c r="D13" s="34">
+        <v>2.7959999999999999E-2</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0.43712119999999999</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="3"/>
+        <v>0.85498957377971363</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="34">
+        <v>0.49635069999999998</v>
+      </c>
+      <c r="M13" s="34">
+        <f t="shared" si="0"/>
+        <v>0.85894019026272783</v>
+      </c>
+      <c r="N13" s="34">
+        <v>0.4078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="35" customFormat="1">
+      <c r="A14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="34">
+        <v>0.2641944</v>
+      </c>
+      <c r="C14" s="34">
+        <f t="shared" si="1"/>
+        <v>0.77824153158351939</v>
+      </c>
+      <c r="D14" s="34">
+        <v>2.2939999999999999E-2</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0.44274160000000001</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="3"/>
+        <v>0.8659828255379709</v>
+      </c>
+      <c r="I14" s="34">
+        <v>0.104</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="34">
+        <v>0.49702010000000002</v>
+      </c>
+      <c r="M14" s="34">
+        <f t="shared" si="0"/>
+        <v>0.8600985941158138</v>
+      </c>
+      <c r="N14" s="34">
+        <v>0.4078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="35" customFormat="1">
+      <c r="A15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="34">
+        <v>0.26276300000000002</v>
+      </c>
+      <c r="C15" s="34">
+        <f t="shared" si="1"/>
+        <v>0.77402503445750681</v>
+      </c>
+      <c r="D15" s="34">
+        <v>2.7210000000000002E-2</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0.46003519999999998</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="3"/>
+        <v>0.8998083359298642</v>
+      </c>
+      <c r="I15" s="34">
+        <v>5.917E-2</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="34">
+        <v>0.50248289999999995</v>
+      </c>
+      <c r="M15" s="34">
+        <f t="shared" si="0"/>
+        <v>0.86955202789029451</v>
+      </c>
+      <c r="N15" s="34">
+        <v>0.4168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="35" customFormat="1">
+      <c r="A16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="34">
+        <v>0.26511279999999998</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" si="1"/>
+        <v>0.78094687667261398</v>
+      </c>
+      <c r="D16" s="34">
+        <v>2.8129999999999999E-2</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="34">
+        <v>0.51081299999999996</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="3"/>
+        <v>0.99912744829382982</v>
+      </c>
+      <c r="I16" s="34">
+        <v>0.98860000000000003</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="34">
+        <v>0.61953199999999997</v>
+      </c>
+      <c r="M16" s="34">
+        <f t="shared" si="0"/>
+        <v>1.0721067462055525</v>
+      </c>
+      <c r="N16" s="34">
+        <v>0.48709999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="35" customFormat="1">
+      <c r="A17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="34">
+        <v>0.26499349999999999</v>
+      </c>
+      <c r="C17" s="34">
+        <f t="shared" si="1"/>
+        <v>0.78059545281685516</v>
+      </c>
+      <c r="D17" s="34">
+        <v>3.1029999999999999E-2</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0.43478650000000002</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="3"/>
+        <v>0.85042300469566223</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="34">
+        <v>0.49708409999999997</v>
+      </c>
+      <c r="M17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.86020934679970595</v>
+      </c>
+      <c r="N17" s="34">
+        <v>0.40989999999999999</v>
+      </c>
+      <c r="W17" s="52">
+        <v>0.49635069999999998</v>
+      </c>
+      <c r="X17" s="52">
+        <v>0.49702010000000002</v>
+      </c>
+      <c r="Y17" s="52">
+        <v>0.50248289999999995</v>
+      </c>
+      <c r="Z17" s="52">
+        <v>0.61953199999999997</v>
+      </c>
+      <c r="AA17" s="52">
+        <v>0.49708409999999997</v>
+      </c>
+      <c r="AB17" s="52">
+        <v>0.56405459999999996</v>
+      </c>
+      <c r="AC17" s="52">
+        <v>0.50300389999999995</v>
+      </c>
+      <c r="AD17" s="52">
+        <v>0.53691560000000005</v>
+      </c>
+      <c r="AE17" s="52">
+        <v>0.49791210000000002</v>
+      </c>
+      <c r="AF17" s="52">
+        <v>0.65857869999999996</v>
+      </c>
+      <c r="AG17" s="52">
+        <v>0.49220350000000002</v>
+      </c>
+      <c r="AH17" s="52">
+        <v>0.52224559999999998</v>
+      </c>
+      <c r="AI17" s="52">
+        <v>0.74023170000000005</v>
+      </c>
+      <c r="AJ17" s="52">
+        <v>0.49635069999999998</v>
+      </c>
+      <c r="AK17" s="52">
+        <v>0.49635069999999998</v>
+      </c>
+      <c r="AL17" s="52">
+        <v>0.74023170000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" s="35" customFormat="1">
+      <c r="A18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="34">
+        <v>0.26909230000000001</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" si="1"/>
+        <v>0.79266935139174743</v>
+      </c>
+      <c r="D18" s="34">
+        <v>4.487E-2</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.65780099999999997</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="3"/>
+        <v>1.2866294213638447</v>
+      </c>
+      <c r="I18" s="34">
+        <v>0.1968</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0.56405459999999996</v>
+      </c>
+      <c r="M18" s="34">
+        <f t="shared" si="0"/>
+        <v>0.97610251268421067</v>
+      </c>
+      <c r="N18" s="34">
+        <v>0.66790000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" s="35" customFormat="1">
+      <c r="A19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="34">
+        <v>0.26524059999999999</v>
+      </c>
+      <c r="C19" s="34">
+        <f t="shared" si="1"/>
+        <v>0.78132333910988139</v>
+      </c>
+      <c r="D19" s="34">
+        <v>3.909E-2</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="34">
+        <v>0.46325539999999998</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="3"/>
+        <v>0.90610690352504242</v>
+      </c>
+      <c r="I19" s="34">
+        <v>0.1179</v>
+      </c>
+      <c r="K19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="34">
+        <v>0.50300389999999995</v>
+      </c>
+      <c r="M19" s="34">
+        <f t="shared" si="0"/>
+        <v>0.87045362395760517</v>
+      </c>
+      <c r="N19" s="34">
+        <v>0.39579999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" s="35" customFormat="1">
+      <c r="A20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="34">
+        <v>0.26557950000000002</v>
+      </c>
+      <c r="C20" s="34">
+        <f t="shared" si="1"/>
+        <v>0.78232164208319821</v>
+      </c>
+      <c r="D20" s="34">
+        <v>4.0160000000000001E-2</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.53186940000000005</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0403128276836542</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="34">
+        <v>0.53691560000000005</v>
+      </c>
+      <c r="M20" s="34">
+        <f t="shared" si="0"/>
+        <v>0.92913818318182428</v>
+      </c>
+      <c r="N20" s="34">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" s="35" customFormat="1">
+      <c r="A21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="34">
+        <v>0.26337890000000003</v>
+      </c>
+      <c r="C21" s="34">
+        <f t="shared" si="1"/>
+        <v>0.7758393006164499</v>
+      </c>
+      <c r="D21" s="34">
+        <v>2.3630000000000002E-2</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.44598480000000001</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="3"/>
+        <v>0.87232638010746422</v>
+      </c>
+      <c r="I21" s="34">
+        <v>8.4409999999999999E-2</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="34">
+        <v>0.49791210000000002</v>
+      </c>
+      <c r="M21" s="34">
+        <f t="shared" si="0"/>
+        <v>0.86164220964756255</v>
+      </c>
+      <c r="N21" s="34">
+        <v>0.43330000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" s="35" customFormat="1">
+      <c r="A22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="34">
+        <v>0.28105599999999997</v>
+      </c>
+      <c r="C22" s="34">
+        <f t="shared" si="1"/>
+        <v>0.82791100757903124</v>
+      </c>
+      <c r="D22" s="34">
+        <v>5.4949999999999999E-2</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.52082309999999998</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0187067574934119</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0.81269999999999998</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="34">
+        <v>0.65857869999999996</v>
+      </c>
+      <c r="M22" s="34">
+        <f t="shared" si="0"/>
+        <v>1.1396774778014416</v>
+      </c>
+      <c r="N22" s="34">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" s="35" customFormat="1">
+      <c r="A23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="34">
+        <v>0.26114720000000002</v>
+      </c>
+      <c r="C23" s="34">
+        <f t="shared" si="1"/>
+        <v>0.76926534739853558</v>
+      </c>
+      <c r="D23" s="34">
+        <v>2.3859999999999999E-2</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.44186999999999999</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="3"/>
+        <v>0.86427801480697364</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="34">
+        <v>0.49220350000000002</v>
+      </c>
+      <c r="M23" s="34">
+        <f t="shared" si="0"/>
+        <v>0.85176341634650776</v>
+      </c>
+      <c r="N23" s="34">
+        <v>0.41720000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" s="35" customFormat="1">
+      <c r="A24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="34">
+        <v>0.26413320000000001</v>
+      </c>
+      <c r="C24" s="34">
+        <f t="shared" si="1"/>
+        <v>0.77806125379665902</v>
+      </c>
+      <c r="D24" s="34">
+        <v>3.5069999999999997E-2</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0.49712479999999998</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="3"/>
+        <v>0.97235393951912052</v>
+      </c>
+      <c r="I24" s="34">
+        <v>0.69869999999999999</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="34">
+        <v>0.52224559999999998</v>
+      </c>
+      <c r="M24" s="34">
+        <f t="shared" si="0"/>
+        <v>0.90375159142088946</v>
+      </c>
+      <c r="N24" s="34">
+        <v>0.48709999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="35" customFormat="1">
+      <c r="A25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="34">
+        <v>0.26373550000000001</v>
+      </c>
+      <c r="C25" s="34">
+        <f t="shared" si="1"/>
+        <v>0.77688974275361367</v>
+      </c>
+      <c r="D25" s="34">
+        <v>3.5950000000000003E-2</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="34">
+        <v>0.51537100000000002</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0080426930298161</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" s="34">
+        <v>0.74023170000000005</v>
+      </c>
+      <c r="M25" s="34">
+        <f t="shared" si="0"/>
+        <v>1.2809788668304538</v>
+      </c>
+      <c r="N25" s="34">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" s="35" customFormat="1">
+      <c r="A26" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="34">
+        <v>0.26114720000000002</v>
+      </c>
+      <c r="C26" s="34">
+        <f t="shared" si="1"/>
+        <v>0.76926534739853558</v>
+      </c>
+      <c r="D26" s="34">
+        <v>2.3859999999999999E-2</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="34">
+        <v>0.43712119999999999</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="3"/>
+        <v>0.85498957377971363</v>
+      </c>
+      <c r="I26" s="34">
+        <v>0.15390000000000001</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" s="34">
+        <v>0.49635069999999998</v>
+      </c>
+      <c r="M26" s="34">
+        <f t="shared" si="0"/>
+        <v>0.85894019026272783</v>
+      </c>
+      <c r="N26" s="34">
+        <v>0.4078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" s="35" customFormat="1">
+      <c r="A27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="34">
+        <v>0.26114720000000002</v>
+      </c>
+      <c r="C27" s="34">
+        <f t="shared" si="1"/>
+        <v>0.76926534739853558</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2.3859999999999999E-2</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.4384055</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="3"/>
+        <v>0.85750160730635416</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="34">
+        <v>0.49635069999999998</v>
+      </c>
+      <c r="M27" s="34">
+        <f t="shared" si="0"/>
+        <v>0.85894019026272783</v>
+      </c>
+      <c r="N27" s="34">
+        <v>0.4078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" s="35" customFormat="1">
+      <c r="A28" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="34">
+        <v>0.26373550000000001</v>
+      </c>
+      <c r="C28" s="34">
+        <f t="shared" si="1"/>
+        <v>0.77688974275361367</v>
+      </c>
+      <c r="D28" s="34">
+        <v>3.5950000000000003E-2</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="34">
+        <v>0.51537100000000002</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0080426930298161</v>
+      </c>
+      <c r="I28" s="34">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="34">
+        <v>0.74023170000000005</v>
+      </c>
+      <c r="M28" s="34">
+        <f t="shared" si="0"/>
+        <v>1.2809788668304538</v>
+      </c>
+      <c r="N28" s="34"/>
+    </row>
+    <row r="29" spans="1:38" s="35" customFormat="1">
+      <c r="A29" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="34">
+        <v>0.32853900000000003</v>
+      </c>
+      <c r="C29" s="34">
+        <f t="shared" si="1"/>
+        <v>0.96778241531583531</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0.79830000000000001</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0.47627530000000001</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="3"/>
+        <v>0.93157324730259083</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L29" s="34">
+        <v>0.49692360000000002</v>
+      </c>
+      <c r="M29" s="34">
+        <f t="shared" si="0"/>
+        <v>0.85993159983463241</v>
+      </c>
+      <c r="N29" s="34">
+        <v>0.46050000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" s="35" customFormat="1">
+      <c r="A30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="34">
+        <v>0.3013731</v>
+      </c>
+      <c r="C30" s="34">
+        <f t="shared" si="1"/>
+        <v>0.88775940338657122</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="34">
+        <v>0.52124669999999995</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0195353002029695</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="K30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="L30" s="34">
+        <v>0.52993179999999995</v>
+      </c>
+      <c r="M30" s="34">
+        <f t="shared" si="0"/>
+        <v>0.91705264265421571</v>
+      </c>
+      <c r="N30" s="34">
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" s="35" customFormat="1">
+      <c r="A31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="34">
+        <v>0.29304760000000002</v>
+      </c>
+      <c r="C31" s="34">
+        <f t="shared" si="1"/>
+        <v>0.86323484922797222</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0.52696069999999995</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0307116293871346</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="K31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="34">
+        <v>0.56361110000000003</v>
+      </c>
+      <c r="M31" s="34">
+        <f t="shared" si="0"/>
+        <v>0.97533503119505094</v>
+      </c>
+      <c r="N31" s="34">
+        <v>0.71609999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" s="35" customFormat="1" hidden="1">
+      <c r="A32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="F32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="34">
+        <f>G32/$G$3</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="K32" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34">
+        <f>L32/$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="34"/>
+    </row>
+    <row r="33" spans="1:23" s="35" customFormat="1">
+      <c r="A33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="34">
+        <v>0.29278939999999998</v>
+      </c>
+      <c r="C33" s="34">
+        <f t="shared" si="1"/>
+        <v>0.86247426549321138</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0.1401</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0.52781500000000003</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0323826020896256</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="K33" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="34">
+        <v>0.53829179999999999</v>
+      </c>
+      <c r="M33" s="34">
+        <f t="shared" si="0"/>
+        <v>0.93151971198764549</v>
+      </c>
+      <c r="N33" s="34">
+        <v>0.57169999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" s="35" customFormat="1">
+      <c r="A34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="34">
+        <v>0.27799610000000002</v>
+      </c>
+      <c r="C34" s="34">
+        <f>B34/$B$3</f>
+        <v>0.81889741280755857</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0.12690000000000001</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0.48418489999999997</v>
+      </c>
+      <c r="H34" s="34">
+        <f t="shared" si="3"/>
+        <v>0.94704407217397202</v>
+      </c>
+      <c r="I34" s="36">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="35">
+        <v>0.52741879999999997</v>
+      </c>
+      <c r="M34" s="34">
+        <f t="shared" si="0"/>
+        <v>0.91270386930075764</v>
+      </c>
+      <c r="N34" s="36">
+        <v>0.62760000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" s="35" customFormat="1">
+      <c r="A35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="36">
+        <v>0.4838518</v>
+      </c>
+      <c r="C35" s="34">
+        <f>B35/$B$3</f>
+        <v>1.4252897332094954</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="35">
+        <v>0.54368439999999996</v>
+      </c>
+      <c r="H35" s="34">
+        <f t="shared" si="3"/>
+        <v>1.0634224407937189</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" s="36">
+        <v>0.56516350000000004</v>
+      </c>
+      <c r="M35" s="34">
+        <f t="shared" si="0"/>
+        <v>0.97802147598371325</v>
+      </c>
+      <c r="N35" s="36">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="H39">
+        <v>0.43712119999999999</v>
+      </c>
+      <c r="I39">
+        <v>0.44274160000000001</v>
+      </c>
+      <c r="J39">
+        <v>0.46003519999999998</v>
+      </c>
+      <c r="K39">
+        <v>0.51081299999999996</v>
+      </c>
+      <c r="L39">
+        <v>0.43478650000000002</v>
+      </c>
+      <c r="M39">
+        <v>0.65780099999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.46325539999999998</v>
+      </c>
+      <c r="O39">
+        <v>0.53186940000000005</v>
+      </c>
+      <c r="P39">
+        <v>0.44598480000000001</v>
+      </c>
+      <c r="Q39">
+        <v>0.52082309999999998</v>
+      </c>
+      <c r="R39">
+        <v>0.44186999999999999</v>
+      </c>
+      <c r="S39">
+        <v>0.49712479999999998</v>
+      </c>
+      <c r="T39">
+        <v>0.51537100000000002</v>
+      </c>
+      <c r="U39">
+        <v>0.43712119999999999</v>
+      </c>
+      <c r="V39">
+        <v>0.4384055</v>
+      </c>
+      <c r="W39">
+        <v>0.51537100000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="H43">
+        <v>0.44654050000000001</v>
+      </c>
+      <c r="I43">
+        <v>0.44805220000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.50226280000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.44719769999999998</v>
+      </c>
+      <c r="M43">
+        <v>0.52675660000000002</v>
+      </c>
+      <c r="N43">
+        <v>0.46482050000000003</v>
+      </c>
+      <c r="O43">
+        <v>0.53325350000000005</v>
+      </c>
+      <c r="P43">
+        <v>0.45127060000000002</v>
+      </c>
+      <c r="Q43">
+        <v>0.51240589999999997</v>
+      </c>
+      <c r="R43">
+        <v>0.45081520000000003</v>
+      </c>
+      <c r="S43">
+        <v>0.47311229999999999</v>
+      </c>
+      <c r="T43">
+        <v>0.50252589999999997</v>
+      </c>
+      <c r="U43">
+        <v>0.44654050000000001</v>
+      </c>
+      <c r="V43">
+        <v>0.44654050000000001</v>
+      </c>
+      <c r="W43">
+        <v>0.50252589999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="H46">
+        <v>0.43712119999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="H47">
+        <v>0.44274160000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="H48">
+        <v>0.46003519999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49">
+        <v>0.51081299999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50">
+        <v>0.43478650000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51">
+        <v>0.65780099999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52">
+        <v>0.46325539999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53">
+        <v>0.53186940000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54">
+        <v>0.44598480000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55">
+        <v>0.52082309999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56">
+        <v>0.44186999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57">
+        <v>0.49712479999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58">
+        <v>0.51537100000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59">
+        <v>0.43712119999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60">
+        <v>0.4384055</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61">
+        <v>0.51537100000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADB81A8-6682-094B-9E6B-951AE63DD90F}">
   <dimension ref="A3:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6067,16 +8133,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21">
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:21">
       <c r="C4" s="3" t="s">
@@ -6100,7 +8166,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="88" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -6126,7 +8192,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="81"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="9" t="s">
         <v>208</v>
       </c>
@@ -6150,7 +8216,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1">
-      <c r="A7" s="81"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="9" t="s">
         <v>209</v>
       </c>
@@ -6163,21 +8229,21 @@
       <c r="I7" s="34">
         <v>0.57786409999999999</v>
       </c>
-      <c r="M7" s="77" t="s">
+      <c r="M7" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="R7" s="77" t="s">
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="R7" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickTop="1">
-      <c r="A8" s="81"/>
+      <c r="A8" s="88"/>
       <c r="B8" s="9" t="s">
         <v>211</v>
       </c>
@@ -6194,17 +8260,17 @@
         <v>0.72784673766721275</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="79" t="s">
+      <c r="N8" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="79" t="s">
+      <c r="S8" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="9" t="s">
@@ -6280,7 +8346,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -6336,7 +8402,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1">
-      <c r="A12" s="81"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
       </c>
@@ -6368,7 +8434,7 @@
       <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="81"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
       </c>
@@ -6383,7 +8449,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="81"/>
+      <c r="A14" s="88"/>
       <c r="B14" s="9" t="s">
         <v>211</v>
       </c>
@@ -6401,7 +8467,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="81"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="9" t="s">
         <v>212</v>
       </c>
@@ -6419,19 +8485,19 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="81"/>
+      <c r="A16" s="88"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
     </row>
     <row r="21" spans="1:21" ht="17" thickBot="1">
       <c r="C21" s="3" t="s">
@@ -6453,21 +8519,21 @@
       <c r="J21" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="77" t="s">
+      <c r="M21" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="R21" s="77" t="s">
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="R21" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
     </row>
     <row r="22" spans="1:21" ht="17" thickTop="1">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="88" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -6492,20 +8558,20 @@
         <v>0.16</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="79" t="s">
+      <c r="N22" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="79" t="s">
+      <c r="S22" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="81"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="9" t="s">
         <v>208</v>
       </c>
@@ -6553,7 +8619,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="81"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="9" t="s">
         <v>209</v>
       </c>
@@ -6670,7 +8736,7 @@
       <c r="U26" s="32"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -6696,7 +8762,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="81"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="9" t="s">
         <v>208</v>
       </c>
@@ -6720,7 +8786,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="81"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="9" t="s">
         <v>209</v>
       </c>
@@ -6735,7 +8801,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="81"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="9" t="s">
         <v>211</v>
       </c>
@@ -6753,7 +8819,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="81"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="9" t="s">
         <v>212</v>
       </c>
@@ -6775,6 +8841,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A22:A24"/>
@@ -6782,24 +8855,17 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC262110-74E5-B94F-8048-06AB921D361A}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="E1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6810,24 +8876,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="F1" s="81" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="F1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="K1" s="81" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="K1" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
@@ -7900,222 +9966,428 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB00AE-548F-0F44-814A-D56B6039FE9C}">
-  <dimension ref="C1:I18"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42266062-BBB2-574F-BEC1-E67EE490C5D9}">
+  <dimension ref="B2:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G14" zoomScale="159" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="17" thickBot="1"/>
-    <row r="2" spans="3:9" ht="17" thickBot="1">
-      <c r="C2" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-    </row>
-    <row r="3" spans="3:9" ht="17" thickTop="1">
-      <c r="C3" s="54"/>
-      <c r="D3" s="65" t="s">
+    <row r="2" spans="2:13" ht="17" thickBot="1">
+      <c r="B2" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+    </row>
+    <row r="3" spans="2:13" ht="17" thickTop="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="H3">
+        <f>H4/H7</f>
+        <v>0.60191739301219471</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="67" t="s">
+      <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="68" t="s">
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="57" t="s">
+      <c r="G4" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="72">
-        <v>0.78132333910988139</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="59">
-        <v>0.87378043735554056</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="63">
-        <v>0.85993159983463241</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" ht="17" thickBot="1">
-      <c r="C5" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="73">
-        <v>0.76926534739853558</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="62">
-        <v>0.85042300469566223</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="64">
-        <v>0.85176341634650776</v>
-      </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" t="s">
+      <c r="H4">
+        <v>0.12856480000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="18">
+        <f>H5/C7</f>
+        <v>0.75410701051209283</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5:E5" si="0">I5/D7</f>
+        <v>1.1470599332570184</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" si="0"/>
+        <v>0.97865542353392121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0.1610713</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0.3404935</v>
+      </c>
+      <c r="J5" s="31">
+        <v>0.38299680000000003</v>
+      </c>
+      <c r="L5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="42">
+        <f>H6/C7</f>
+        <v>0.72252484993592925</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:E6" si="1">I6/D7</f>
+        <v>1.2471477919769627</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="1"/>
+        <v>2.1409561773348669</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="77">
+        <v>0.15432560000000001</v>
+      </c>
+      <c r="I6" s="40">
+        <v>0.37020360000000002</v>
+      </c>
+      <c r="J6" s="40">
+        <f>0.8378632</f>
+        <v>0.83786320000000003</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6">
+        <v>9.7328970000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="21">
+        <f>H7</f>
+        <v>0.21359210000000001</v>
+      </c>
+      <c r="D7" s="79">
+        <f t="shared" ref="D7:E7" si="2">I7</f>
+        <v>0.2968402</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="2"/>
+        <v>0.39134999999999998</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="78">
+        <v>0.21359210000000001</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.2968402</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0.39134999999999998</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7">
+        <f>M6/H7</f>
+        <v>0.45567682512602292</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="12" customHeight="1" thickBot="1">
+      <c r="B8" s="4"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="H8">
+        <v>1.6729999999999998E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8">
+        <v>8.4189999999999994E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="38" customHeight="1">
+      <c r="B9" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="3:9" ht="13" customHeight="1">
-      <c r="C7" t="s">
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="H9">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.94930000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="29" customHeight="1">
+      <c r="B10" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="17" thickBot="1"/>
-    <row r="12" spans="3:9" ht="17" thickBot="1">
-      <c r="C12" s="82" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-    </row>
-    <row r="13" spans="3:9" ht="17" thickTop="1">
-      <c r="C13" s="54"/>
-      <c r="D13" s="65" t="s">
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="89"/>
+      <c r="H10">
+        <v>3.0259999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+    </row>
+    <row r="12" spans="2:13" ht="23" customHeight="1">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1">
+      <c r="B14" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickTop="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="67" t="s">
+      <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="68" t="s">
+      <c r="E16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9">
-      <c r="C14" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="57" t="s">
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="24">
+        <f>H17/C19</f>
+        <v>0.62862882099644712</v>
+      </c>
+      <c r="D17" s="40">
+        <f t="shared" ref="D17" si="3">I17/D19</f>
+        <v>0.66614481188284602</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" ref="E17" si="4">J17/E19</f>
+        <v>0.55956068271186599</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="18">
+        <v>3.0715810000000001</v>
+      </c>
+      <c r="I17" s="40">
+        <v>3.0712459999999999</v>
+      </c>
+      <c r="J17" s="40">
+        <v>3.0670310000000001</v>
+      </c>
+      <c r="L17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="72">
-        <v>0.70224312648919107</v>
-      </c>
-      <c r="F14" s="57" t="s">
+      <c r="C18" s="42">
+        <f>H18/C19</f>
+        <v>0.62785807259688586</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" ref="D18" si="5">I18/D19</f>
+        <v>0.84504079620377759</v>
+      </c>
+      <c r="E18" s="18">
+        <f>J18/E19</f>
+        <v>0.56742309676032787</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="72">
-        <v>0.68692796537752643</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="63">
-        <v>0.69103553094028414</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="17" thickBot="1">
-      <c r="C15" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="73">
-        <v>0.70369225116940048</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="76">
-        <v>0.68785855829089226</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="64">
-        <v>0.68584935584751372</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9">
-      <c r="C16" t="s">
+      <c r="H18" s="24">
+        <v>3.067815</v>
+      </c>
+      <c r="I18" s="18">
+        <v>3.896042</v>
+      </c>
+      <c r="J18" s="18">
+        <v>3.1101260000000002</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+      <c r="M18">
+        <v>2.6617660000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="21">
+        <f>H19</f>
+        <v>4.8861600000000003</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" ref="D19" si="6">I19</f>
+        <v>4.6104779999999996</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" ref="E19" si="7">J19</f>
+        <v>5.481141</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>4.8861600000000003</v>
+      </c>
+      <c r="I19">
+        <v>4.6104779999999996</v>
+      </c>
+      <c r="J19">
+        <v>5.481141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19">
+        <f>M18/H19</f>
+        <v>0.5447562093750512</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="17" thickBot="1">
+      <c r="B20" s="4"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="H20">
+        <v>1.024E-3</v>
+      </c>
+      <c r="I20">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.4229</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20">
+        <v>1.147E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="38" customHeight="1">
+      <c r="B21" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="H21">
+        <v>1.0449999999999999E-3</v>
+      </c>
+      <c r="I21">
+        <v>0.2051</v>
+      </c>
+      <c r="J21">
+        <v>0.42620000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="29" customHeight="1">
+      <c r="B22" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="75" t="s">
-        <v>202</v>
-      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+    </row>
+    <row r="23" spans="2:13" ht="33" customHeight="1">
+      <c r="B23" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C2:I2"/>
+  <mergeCells count="10">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8135,12 +10407,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -8284,12 +10556,12 @@
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8317,10 +10589,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="17" thickBot="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="77"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -8459,7 +10731,7 @@
   <dimension ref="B2:Q93"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8474,44 +10746,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="I2" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="N2" s="77" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -9100,28 +11372,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="77" t="s">
+      <c r="N24" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -9138,11 +11410,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -9160,12 +11432,12 @@
         <f>'RMSE TRM (I(0))'!M7</f>
         <v>7.1042332719647154</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -9196,11 +11468,11 @@
         <v>0.71412270308234693</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="79" t="s">
+      <c r="J27" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -9681,22 +11953,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -9909,12 +12181,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="B23:E23"/>
@@ -9923,6 +12189,12 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9932,8 +12204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1907A93-DFA4-DE49-BD81-CE15FB82F195}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A11" zoomScale="114" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9943,24 +12215,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="F1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="K1" s="80" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="K1" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
       <c r="Q1" t="s">
         <v>191</v>
       </c>
@@ -10996,7 +13268,7 @@
         <v>41.609810000000003</v>
       </c>
       <c r="C25" s="34">
-        <f t="shared" si="2"/>
+        <f>B25/$B$3</f>
         <v>7.4718466678841473</v>
       </c>
       <c r="D25" s="34"/>
@@ -11564,11 +13836,232 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB00AE-548F-0F44-814A-D56B6039FE9C}">
+  <dimension ref="C1:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="17" thickBot="1"/>
+    <row r="2" spans="3:9" ht="17" thickBot="1">
+      <c r="C2" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+    </row>
+    <row r="3" spans="3:9" ht="17" thickTop="1">
+      <c r="C3" s="54"/>
+      <c r="D3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="70" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="72">
+        <v>0.78132333910988139</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0.87378043735554056</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0.85993159983463241</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="17" thickBot="1">
+      <c r="C5" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="73">
+        <v>0.76926534739853558</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="62">
+        <v>0.85042300469566223</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="64">
+        <v>0.85176341634650776</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="3:9" ht="13" customHeight="1">
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="75" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" ht="17" thickBot="1"/>
+    <row r="12" spans="3:9" ht="17" thickBot="1">
+      <c r="C12" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="87"/>
+    </row>
+    <row r="13" spans="3:9" ht="17" thickTop="1">
+      <c r="C13" s="54"/>
+      <c r="D13" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="72">
+        <v>0.70224312648919107</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="72">
+        <v>0.68692796537752643</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="63">
+        <v>0.69103553094028414</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="17" thickBot="1">
+      <c r="C15" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="73">
+        <v>0.70369225116940048</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="76">
+        <v>0.68785855829089226</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="64">
+        <v>0.68584935584751372</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CFBEBB-574B-AF48-9FA5-E06F3341DF54}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11579,24 +14072,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="F1" s="80" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="F1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="K1" s="80" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="K1" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
@@ -12688,12 +15181,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F432959-ABC2-8F4B-9F71-0EF47A79DE53}">
   <dimension ref="B2:Q93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J2" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12705,44 +15198,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="I2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="N2" s="77" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="79" t="s">
+      <c r="O3" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -13328,28 +15821,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="77" t="s">
+      <c r="N24" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -13366,11 +15859,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="79" t="s">
+      <c r="O25" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -13388,12 +15881,12 @@
         <f>'RMSE Inf I(0)'!M7</f>
         <v>0.91199937840056167</v>
       </c>
-      <c r="I26" s="77" t="s">
+      <c r="I26" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -13424,11 +15917,11 @@
         <v>0.95687515455623562</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="79" t="s">
+      <c r="J27" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -13909,22 +16402,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="81"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -14137,11 +16630,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I26:L26"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
@@ -14151,12 +16639,17 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706E2872-F73C-EE45-98AE-287A7752E98C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14170,1626 +16663,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078143E7-9F3A-BB46-80B9-E96FCBC32625}">
-  <dimension ref="A1:AL61"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="F1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="K1" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="Q1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P2" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q2" s="74">
-        <v>0.24692823467366906</v>
-      </c>
-      <c r="R2">
-        <f>Q2/B3</f>
-        <v>0.72738032124697161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="35" customFormat="1">
-      <c r="A3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0.3394761</v>
-      </c>
-      <c r="C3" s="34">
-        <f>B3/$B$3</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="F3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0.51125909999999997</v>
-      </c>
-      <c r="H3" s="34">
-        <f>G3/$G$3</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="K3" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="34">
-        <v>0.57786409999999999</v>
-      </c>
-      <c r="M3" s="34">
-        <f>L3/$L$3</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="1:18" s="35" customFormat="1">
-      <c r="A4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="34">
-        <v>0.49962489999999998</v>
-      </c>
-      <c r="C4" s="34">
-        <f>B4/$B$3</f>
-        <v>1.4717527979141978</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="F4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0.5211403</v>
-      </c>
-      <c r="H4" s="34">
-        <f>G4/$G$3</f>
-        <v>1.0193271865478777</v>
-      </c>
-      <c r="I4" s="34"/>
-      <c r="K4" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="34">
-        <v>0.51739500000000005</v>
-      </c>
-      <c r="M4" s="34">
-        <f t="shared" ref="M4:M35" si="0">L4/$L$3</f>
-        <v>0.89535757628826584</v>
-      </c>
-      <c r="N4" s="34">
-        <v>0.6109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="35" customFormat="1">
-      <c r="A5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="34">
-        <v>0.32012400000000002</v>
-      </c>
-      <c r="C5" s="34">
-        <f t="shared" ref="C5:C33" si="1">B5/$B$3</f>
-        <v>0.94299421962253016</v>
-      </c>
-      <c r="D5" s="34">
-        <v>0.39219999999999999</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="35">
-        <v>0.53513310000000003</v>
-      </c>
-      <c r="H5" s="34">
-        <f>G5/$G$3</f>
-        <v>1.0466964793389497</v>
-      </c>
-      <c r="I5" s="34"/>
-      <c r="K5" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="34">
-        <v>0.52536720000000003</v>
-      </c>
-      <c r="M5" s="34">
-        <f>L5/$L$3</f>
-        <v>0.90915355357773575</v>
-      </c>
-      <c r="N5" s="34">
-        <v>0.5958</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="35" customFormat="1">
-      <c r="A6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="34">
-        <v>0.36147489999999999</v>
-      </c>
-      <c r="C6" s="34">
-        <f>B6/$B$3</f>
-        <v>1.0648022055160877</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="F6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="34">
-        <v>0.5047334</v>
-      </c>
-      <c r="H6" s="34">
-        <f t="shared" ref="H6:H8" si="2">G6/$G$3</f>
-        <v>0.98723602181359715</v>
-      </c>
-      <c r="I6" s="34">
-        <v>0.76529999999999998</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="34">
-        <v>0.58629330000000002</v>
-      </c>
-      <c r="M6" s="34">
-        <f t="shared" si="0"/>
-        <v>1.0145868206728883</v>
-      </c>
-      <c r="N6" s="34"/>
-    </row>
-    <row r="7" spans="1:18" s="35" customFormat="1">
-      <c r="A7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="34">
-        <v>0.28532079999999999</v>
-      </c>
-      <c r="C7" s="34">
-        <f t="shared" si="1"/>
-        <v>0.84047389492220503</v>
-      </c>
-      <c r="D7" s="34">
-        <v>5.3830000000000003E-2</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="34">
-        <v>0.56010360000000003</v>
-      </c>
-      <c r="H7" s="34">
-        <f t="shared" si="2"/>
-        <v>1.0955376637794811</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="K7" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="34">
-        <v>1.2823439999999999</v>
-      </c>
-      <c r="M7" s="34">
-        <f t="shared" si="0"/>
-        <v>2.2191099948932629</v>
-      </c>
-      <c r="N7" s="34"/>
-    </row>
-    <row r="8" spans="1:18" s="35" customFormat="1">
-      <c r="A8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="34">
-        <v>0.35581940000000001</v>
-      </c>
-      <c r="C8" s="34">
-        <f t="shared" si="1"/>
-        <v>1.0481427116665945</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="F8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="34">
-        <v>0.52864900000000004</v>
-      </c>
-      <c r="H8" s="34">
-        <f t="shared" si="2"/>
-        <v>1.0340138688973948</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="K8" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="34">
-        <v>1.267862</v>
-      </c>
-      <c r="M8" s="34">
-        <f t="shared" si="0"/>
-        <v>2.194048739141262</v>
-      </c>
-      <c r="N8" s="34"/>
-    </row>
-    <row r="9" spans="1:18" s="35" customFormat="1">
-      <c r="A9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="34">
-        <v>0.31717079999999997</v>
-      </c>
-      <c r="C9" s="34">
-        <f t="shared" si="1"/>
-        <v>0.93429493269187425</v>
-      </c>
-      <c r="D9" s="34">
-        <v>0.44330000000000003</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0.62927569999999999</v>
-      </c>
-      <c r="H9" s="34">
-        <f t="shared" ref="H9:H35" si="3">G9/$G$3</f>
-        <v>1.2308352066496226</v>
-      </c>
-      <c r="I9" s="34"/>
-      <c r="K9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="34">
-        <v>0.81156689999999998</v>
-      </c>
-      <c r="M9" s="34">
-        <f t="shared" si="0"/>
-        <v>1.4044251927053437</v>
-      </c>
-      <c r="N9" s="34"/>
-    </row>
-    <row r="10" spans="1:18" s="35" customFormat="1">
-      <c r="A10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="34">
-        <v>0.29268309999999997</v>
-      </c>
-      <c r="C10" s="34">
-        <f>B10/$B$3</f>
-        <v>0.8621611359385829</v>
-      </c>
-      <c r="D10" s="34">
-        <v>0.1933</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="34">
-        <v>0.50036250000000004</v>
-      </c>
-      <c r="H10" s="34">
-        <f t="shared" si="3"/>
-        <v>0.97868673633388648</v>
-      </c>
-      <c r="I10" s="34">
-        <v>0.81920000000000004</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="34">
-        <v>0.5132835</v>
-      </c>
-      <c r="M10" s="34">
-        <f t="shared" si="0"/>
-        <v>0.88824258160352931</v>
-      </c>
-      <c r="N10" s="34">
-        <v>0.57889999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="35" customFormat="1">
-      <c r="A11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="34">
-        <v>0.26524059999999999</v>
-      </c>
-      <c r="C11" s="34">
-        <f t="shared" si="1"/>
-        <v>0.78132333910988139</v>
-      </c>
-      <c r="D11" s="34">
-        <v>3.909E-2</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="34">
-        <v>0.47005530000000001</v>
-      </c>
-      <c r="H11" s="34">
-        <f>G11/$G$3</f>
-        <v>0.91940720468349613</v>
-      </c>
-      <c r="I11" s="34">
-        <v>7.2349999999999998E-2</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="34">
-        <v>0.52512829999999999</v>
-      </c>
-      <c r="M11" s="34">
-        <f t="shared" si="0"/>
-        <v>0.908740134574894</v>
-      </c>
-      <c r="N11" s="34">
-        <v>0.36270000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="35" customFormat="1">
-      <c r="A12" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="34">
-        <v>0.4891297</v>
-      </c>
-      <c r="C12" s="34">
-        <f t="shared" si="1"/>
-        <v>1.4408369248969219</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="F12" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="34">
-        <v>3.7484280000000001</v>
-      </c>
-      <c r="H12" s="34">
-        <f t="shared" si="3"/>
-        <v>7.3317580068501478</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="K12" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="34">
-        <v>6.1136609999999996</v>
-      </c>
-      <c r="M12" s="34">
-        <f t="shared" si="0"/>
-        <v>10.579755689962397</v>
-      </c>
-      <c r="N12" s="34"/>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1">
-      <c r="A13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="34">
-        <v>0.26469809999999999</v>
-      </c>
-      <c r="C13" s="34">
-        <f t="shared" si="1"/>
-        <v>0.77972528846655176</v>
-      </c>
-      <c r="D13" s="34">
-        <v>2.7959999999999999E-2</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="34">
-        <v>0.43712119999999999</v>
-      </c>
-      <c r="H13" s="34">
-        <f t="shared" si="3"/>
-        <v>0.85498957377971363</v>
-      </c>
-      <c r="I13" s="34">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="34">
-        <v>0.49635069999999998</v>
-      </c>
-      <c r="M13" s="34">
-        <f t="shared" si="0"/>
-        <v>0.85894019026272783</v>
-      </c>
-      <c r="N13" s="34">
-        <v>0.4078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="35" customFormat="1">
-      <c r="A14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="34">
-        <v>0.2641944</v>
-      </c>
-      <c r="C14" s="34">
-        <f t="shared" si="1"/>
-        <v>0.77824153158351939</v>
-      </c>
-      <c r="D14" s="34">
-        <v>2.2939999999999999E-2</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0.44274160000000001</v>
-      </c>
-      <c r="H14" s="34">
-        <f t="shared" si="3"/>
-        <v>0.8659828255379709</v>
-      </c>
-      <c r="I14" s="34">
-        <v>0.104</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="34">
-        <v>0.49702010000000002</v>
-      </c>
-      <c r="M14" s="34">
-        <f t="shared" si="0"/>
-        <v>0.8600985941158138</v>
-      </c>
-      <c r="N14" s="34">
-        <v>0.4078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1">
-      <c r="A15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="34">
-        <v>0.26276300000000002</v>
-      </c>
-      <c r="C15" s="34">
-        <f t="shared" si="1"/>
-        <v>0.77402503445750681</v>
-      </c>
-      <c r="D15" s="34">
-        <v>2.7210000000000002E-2</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="34">
-        <v>0.46003519999999998</v>
-      </c>
-      <c r="H15" s="34">
-        <f t="shared" si="3"/>
-        <v>0.8998083359298642</v>
-      </c>
-      <c r="I15" s="34">
-        <v>5.917E-2</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="34">
-        <v>0.50248289999999995</v>
-      </c>
-      <c r="M15" s="34">
-        <f t="shared" si="0"/>
-        <v>0.86955202789029451</v>
-      </c>
-      <c r="N15" s="34">
-        <v>0.4168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="35" customFormat="1">
-      <c r="A16" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="34">
-        <v>0.26511279999999998</v>
-      </c>
-      <c r="C16" s="34">
-        <f t="shared" si="1"/>
-        <v>0.78094687667261398</v>
-      </c>
-      <c r="D16" s="34">
-        <v>2.8129999999999999E-2</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="34">
-        <v>0.51081299999999996</v>
-      </c>
-      <c r="H16" s="34">
-        <f t="shared" si="3"/>
-        <v>0.99912744829382982</v>
-      </c>
-      <c r="I16" s="34">
-        <v>0.98860000000000003</v>
-      </c>
-      <c r="K16" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="34">
-        <v>0.61953199999999997</v>
-      </c>
-      <c r="M16" s="34">
-        <f t="shared" si="0"/>
-        <v>1.0721067462055525</v>
-      </c>
-      <c r="N16" s="34">
-        <v>0.48709999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" s="35" customFormat="1">
-      <c r="A17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="34">
-        <v>0.26499349999999999</v>
-      </c>
-      <c r="C17" s="34">
-        <f t="shared" si="1"/>
-        <v>0.78059545281685516</v>
-      </c>
-      <c r="D17" s="34">
-        <v>3.1029999999999999E-2</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0.43478650000000002</v>
-      </c>
-      <c r="H17" s="34">
-        <f t="shared" si="3"/>
-        <v>0.85042300469566223</v>
-      </c>
-      <c r="I17" s="34">
-        <v>0.20480000000000001</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="34">
-        <v>0.49708409999999997</v>
-      </c>
-      <c r="M17" s="34">
-        <f t="shared" si="0"/>
-        <v>0.86020934679970595</v>
-      </c>
-      <c r="N17" s="34">
-        <v>0.40989999999999999</v>
-      </c>
-      <c r="W17" s="52">
-        <v>0.49635069999999998</v>
-      </c>
-      <c r="X17" s="52">
-        <v>0.49702010000000002</v>
-      </c>
-      <c r="Y17" s="52">
-        <v>0.50248289999999995</v>
-      </c>
-      <c r="Z17" s="52">
-        <v>0.61953199999999997</v>
-      </c>
-      <c r="AA17" s="52">
-        <v>0.49708409999999997</v>
-      </c>
-      <c r="AB17" s="52">
-        <v>0.56405459999999996</v>
-      </c>
-      <c r="AC17" s="52">
-        <v>0.50300389999999995</v>
-      </c>
-      <c r="AD17" s="52">
-        <v>0.53691560000000005</v>
-      </c>
-      <c r="AE17" s="52">
-        <v>0.49791210000000002</v>
-      </c>
-      <c r="AF17" s="52">
-        <v>0.65857869999999996</v>
-      </c>
-      <c r="AG17" s="52">
-        <v>0.49220350000000002</v>
-      </c>
-      <c r="AH17" s="52">
-        <v>0.52224559999999998</v>
-      </c>
-      <c r="AI17" s="52">
-        <v>0.74023170000000005</v>
-      </c>
-      <c r="AJ17" s="52">
-        <v>0.49635069999999998</v>
-      </c>
-      <c r="AK17" s="52">
-        <v>0.49635069999999998</v>
-      </c>
-      <c r="AL17" s="52">
-        <v>0.74023170000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" s="35" customFormat="1">
-      <c r="A18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="34">
-        <v>0.26909230000000001</v>
-      </c>
-      <c r="C18" s="34">
-        <f t="shared" si="1"/>
-        <v>0.79266935139174743</v>
-      </c>
-      <c r="D18" s="34">
-        <v>4.487E-2</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="34">
-        <v>0.65780099999999997</v>
-      </c>
-      <c r="H18" s="34">
-        <f t="shared" si="3"/>
-        <v>1.2866294213638447</v>
-      </c>
-      <c r="I18" s="34">
-        <v>0.1968</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="34">
-        <v>0.56405459999999996</v>
-      </c>
-      <c r="M18" s="34">
-        <f t="shared" si="0"/>
-        <v>0.97610251268421067</v>
-      </c>
-      <c r="N18" s="34">
-        <v>0.66790000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" s="35" customFormat="1">
-      <c r="A19" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="34">
-        <v>0.26524059999999999</v>
-      </c>
-      <c r="C19" s="34">
-        <f t="shared" si="1"/>
-        <v>0.78132333910988139</v>
-      </c>
-      <c r="D19" s="34">
-        <v>3.909E-2</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="34">
-        <v>0.46325539999999998</v>
-      </c>
-      <c r="H19" s="34">
-        <f t="shared" si="3"/>
-        <v>0.90610690352504242</v>
-      </c>
-      <c r="I19" s="34">
-        <v>0.1179</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="34">
-        <v>0.50300389999999995</v>
-      </c>
-      <c r="M19" s="34">
-        <f t="shared" si="0"/>
-        <v>0.87045362395760517</v>
-      </c>
-      <c r="N19" s="34">
-        <v>0.39579999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" s="35" customFormat="1">
-      <c r="A20" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="34">
-        <v>0.26557950000000002</v>
-      </c>
-      <c r="C20" s="34">
-        <f t="shared" si="1"/>
-        <v>0.78232164208319821</v>
-      </c>
-      <c r="D20" s="34">
-        <v>4.0160000000000001E-2</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="34">
-        <v>0.53186940000000005</v>
-      </c>
-      <c r="H20" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0403128276836542</v>
-      </c>
-      <c r="I20" s="34">
-        <v>0.55579999999999996</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="34">
-        <v>0.53691560000000005</v>
-      </c>
-      <c r="M20" s="34">
-        <f t="shared" si="0"/>
-        <v>0.92913818318182428</v>
-      </c>
-      <c r="N20" s="34">
-        <v>0.42499999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" s="35" customFormat="1">
-      <c r="A21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="34">
-        <v>0.26337890000000003</v>
-      </c>
-      <c r="C21" s="34">
-        <f t="shared" si="1"/>
-        <v>0.7758393006164499</v>
-      </c>
-      <c r="D21" s="34">
-        <v>2.3630000000000002E-2</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="34">
-        <v>0.44598480000000001</v>
-      </c>
-      <c r="H21" s="34">
-        <f t="shared" si="3"/>
-        <v>0.87232638010746422</v>
-      </c>
-      <c r="I21" s="34">
-        <v>8.4409999999999999E-2</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="L21" s="34">
-        <v>0.49791210000000002</v>
-      </c>
-      <c r="M21" s="34">
-        <f t="shared" si="0"/>
-        <v>0.86164220964756255</v>
-      </c>
-      <c r="N21" s="34">
-        <v>0.43330000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" s="35" customFormat="1">
-      <c r="A22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="34">
-        <v>0.28105599999999997</v>
-      </c>
-      <c r="C22" s="34">
-        <f t="shared" si="1"/>
-        <v>0.82791100757903124</v>
-      </c>
-      <c r="D22" s="34">
-        <v>5.4949999999999999E-2</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="34">
-        <v>0.52082309999999998</v>
-      </c>
-      <c r="H22" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0187067574934119</v>
-      </c>
-      <c r="I22" s="34">
-        <v>0.81269999999999998</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="34">
-        <v>0.65857869999999996</v>
-      </c>
-      <c r="M22" s="34">
-        <f t="shared" si="0"/>
-        <v>1.1396774778014416</v>
-      </c>
-      <c r="N22" s="34">
-        <v>0.314</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" s="35" customFormat="1">
-      <c r="A23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="34">
-        <v>0.26114720000000002</v>
-      </c>
-      <c r="C23" s="34">
-        <f t="shared" si="1"/>
-        <v>0.76926534739853558</v>
-      </c>
-      <c r="D23" s="34">
-        <v>2.3859999999999999E-2</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="34">
-        <v>0.44186999999999999</v>
-      </c>
-      <c r="H23" s="34">
-        <f t="shared" si="3"/>
-        <v>0.86427801480697364</v>
-      </c>
-      <c r="I23" s="34">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="34">
-        <v>0.49220350000000002</v>
-      </c>
-      <c r="M23" s="34">
-        <f t="shared" si="0"/>
-        <v>0.85176341634650776</v>
-      </c>
-      <c r="N23" s="34">
-        <v>0.41720000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" s="35" customFormat="1">
-      <c r="A24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="34">
-        <v>0.26413320000000001</v>
-      </c>
-      <c r="C24" s="34">
-        <f t="shared" si="1"/>
-        <v>0.77806125379665902</v>
-      </c>
-      <c r="D24" s="34">
-        <v>3.5069999999999997E-2</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="34">
-        <v>0.49712479999999998</v>
-      </c>
-      <c r="H24" s="34">
-        <f t="shared" si="3"/>
-        <v>0.97235393951912052</v>
-      </c>
-      <c r="I24" s="34">
-        <v>0.69869999999999999</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="34">
-        <v>0.52224559999999998</v>
-      </c>
-      <c r="M24" s="34">
-        <f t="shared" si="0"/>
-        <v>0.90375159142088946</v>
-      </c>
-      <c r="N24" s="34">
-        <v>0.48709999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" s="35" customFormat="1">
-      <c r="A25" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="34">
-        <v>0.26373550000000001</v>
-      </c>
-      <c r="C25" s="34">
-        <f t="shared" si="1"/>
-        <v>0.77688974275361367</v>
-      </c>
-      <c r="D25" s="34">
-        <v>3.5950000000000003E-2</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="34">
-        <v>0.51537100000000002</v>
-      </c>
-      <c r="H25" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0080426930298161</v>
-      </c>
-      <c r="I25" s="34">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="34">
-        <v>0.74023170000000005</v>
-      </c>
-      <c r="M25" s="34">
-        <f t="shared" si="0"/>
-        <v>1.2809788668304538</v>
-      </c>
-      <c r="N25" s="34">
-        <v>0.1217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" s="35" customFormat="1">
-      <c r="A26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="34">
-        <v>0.26114720000000002</v>
-      </c>
-      <c r="C26" s="34">
-        <f t="shared" si="1"/>
-        <v>0.76926534739853558</v>
-      </c>
-      <c r="D26" s="34">
-        <v>2.3859999999999999E-2</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0.43712119999999999</v>
-      </c>
-      <c r="H26" s="34">
-        <f t="shared" si="3"/>
-        <v>0.85498957377971363</v>
-      </c>
-      <c r="I26" s="34">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="K26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="L26" s="34">
-        <v>0.49635069999999998</v>
-      </c>
-      <c r="M26" s="34">
-        <f t="shared" si="0"/>
-        <v>0.85894019026272783</v>
-      </c>
-      <c r="N26" s="34">
-        <v>0.4078</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" s="35" customFormat="1">
-      <c r="A27" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="34">
-        <v>0.26114720000000002</v>
-      </c>
-      <c r="C27" s="34">
-        <f t="shared" si="1"/>
-        <v>0.76926534739853558</v>
-      </c>
-      <c r="D27" s="34">
-        <v>2.3859999999999999E-2</v>
-      </c>
-      <c r="F27" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0.4384055</v>
-      </c>
-      <c r="H27" s="34">
-        <f t="shared" si="3"/>
-        <v>0.85750160730635416</v>
-      </c>
-      <c r="I27" s="34">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="34">
-        <v>0.49635069999999998</v>
-      </c>
-      <c r="M27" s="34">
-        <f t="shared" si="0"/>
-        <v>0.85894019026272783</v>
-      </c>
-      <c r="N27" s="34">
-        <v>0.4078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" s="35" customFormat="1">
-      <c r="A28" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="34">
-        <v>0.26373550000000001</v>
-      </c>
-      <c r="C28" s="34">
-        <f t="shared" si="1"/>
-        <v>0.77688974275361367</v>
-      </c>
-      <c r="D28" s="34">
-        <v>3.5950000000000003E-2</v>
-      </c>
-      <c r="F28" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="34">
-        <v>0.51537100000000002</v>
-      </c>
-      <c r="H28" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0080426930298161</v>
-      </c>
-      <c r="I28" s="34">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="34">
-        <v>0.74023170000000005</v>
-      </c>
-      <c r="M28" s="34">
-        <f t="shared" si="0"/>
-        <v>1.2809788668304538</v>
-      </c>
-      <c r="N28" s="34"/>
-    </row>
-    <row r="29" spans="1:38" s="35" customFormat="1">
-      <c r="A29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="34">
-        <v>0.32853900000000003</v>
-      </c>
-      <c r="C29" s="34">
-        <f t="shared" si="1"/>
-        <v>0.96778241531583531</v>
-      </c>
-      <c r="D29" s="34">
-        <v>0.79830000000000001</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="34">
-        <v>0.47627530000000001</v>
-      </c>
-      <c r="H29" s="34">
-        <f t="shared" si="3"/>
-        <v>0.93157324730259083</v>
-      </c>
-      <c r="I29" s="34">
-        <v>0.40970000000000001</v>
-      </c>
-      <c r="K29" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="34">
-        <v>0.49692360000000002</v>
-      </c>
-      <c r="M29" s="34">
-        <f t="shared" si="0"/>
-        <v>0.85993159983463241</v>
-      </c>
-      <c r="N29" s="34">
-        <v>0.46050000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" s="35" customFormat="1">
-      <c r="A30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="34">
-        <v>0.3013731</v>
-      </c>
-      <c r="C30" s="34">
-        <f t="shared" si="1"/>
-        <v>0.88775940338657122</v>
-      </c>
-      <c r="D30" s="34">
-        <v>0.28179999999999999</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="34">
-        <v>0.52124669999999995</v>
-      </c>
-      <c r="H30" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0195353002029695</v>
-      </c>
-      <c r="I30" s="34"/>
-      <c r="K30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="L30" s="34">
-        <v>0.52993179999999995</v>
-      </c>
-      <c r="M30" s="34">
-        <f t="shared" si="0"/>
-        <v>0.91705264265421571</v>
-      </c>
-      <c r="N30" s="34">
-        <v>0.60050000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" s="35" customFormat="1">
-      <c r="A31" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="34">
-        <v>0.29304760000000002</v>
-      </c>
-      <c r="C31" s="34">
-        <f t="shared" si="1"/>
-        <v>0.86323484922797222</v>
-      </c>
-      <c r="D31" s="34">
-        <v>0.23930000000000001</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="34">
-        <v>0.52696069999999995</v>
-      </c>
-      <c r="H31" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0307116293871346</v>
-      </c>
-      <c r="I31" s="34"/>
-      <c r="K31" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="34">
-        <v>0.56361110000000003</v>
-      </c>
-      <c r="M31" s="34">
-        <f t="shared" si="0"/>
-        <v>0.97533503119505094</v>
-      </c>
-      <c r="N31" s="34">
-        <v>0.71609999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" s="35" customFormat="1" hidden="1">
-      <c r="A32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="F32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="34">
-        <f>G32/$G$3</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="34"/>
-      <c r="K32" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34">
-        <f>L32/$L$3</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="34"/>
-    </row>
-    <row r="33" spans="1:23" s="35" customFormat="1">
-      <c r="A33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="34">
-        <v>0.29278939999999998</v>
-      </c>
-      <c r="C33" s="34">
-        <f t="shared" si="1"/>
-        <v>0.86247426549321138</v>
-      </c>
-      <c r="D33" s="34">
-        <v>0.1401</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="34">
-        <v>0.52781500000000003</v>
-      </c>
-      <c r="H33" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0323826020896256</v>
-      </c>
-      <c r="I33" s="34"/>
-      <c r="K33" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="34">
-        <v>0.53829179999999999</v>
-      </c>
-      <c r="M33" s="34">
-        <f t="shared" si="0"/>
-        <v>0.93151971198764549</v>
-      </c>
-      <c r="N33" s="34">
-        <v>0.57169999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" s="35" customFormat="1">
-      <c r="A34" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="34">
-        <v>0.27799610000000002</v>
-      </c>
-      <c r="C34" s="34">
-        <f>B34/$B$3</f>
-        <v>0.81889741280755857</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="F34" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="35">
-        <v>0.48418489999999997</v>
-      </c>
-      <c r="H34" s="34">
-        <f t="shared" si="3"/>
-        <v>0.94704407217397202</v>
-      </c>
-      <c r="I34" s="36">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="L34" s="35">
-        <v>0.52741879999999997</v>
-      </c>
-      <c r="M34" s="34">
-        <f t="shared" si="0"/>
-        <v>0.91270386930075764</v>
-      </c>
-      <c r="N34" s="36">
-        <v>0.62760000000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" s="35" customFormat="1">
-      <c r="A35" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="36">
-        <v>0.4838518</v>
-      </c>
-      <c r="C35" s="34">
-        <f>B35/$B$3</f>
-        <v>1.4252897332094954</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="35">
-        <v>0.54368439999999996</v>
-      </c>
-      <c r="H35" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0634224407937189</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" s="36">
-        <v>0.56516350000000004</v>
-      </c>
-      <c r="M35" s="34">
-        <f t="shared" si="0"/>
-        <v>0.97802147598371325</v>
-      </c>
-      <c r="N35" s="36">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
-      <c r="H39">
-        <v>0.43712119999999999</v>
-      </c>
-      <c r="I39">
-        <v>0.44274160000000001</v>
-      </c>
-      <c r="J39">
-        <v>0.46003519999999998</v>
-      </c>
-      <c r="K39">
-        <v>0.51081299999999996</v>
-      </c>
-      <c r="L39">
-        <v>0.43478650000000002</v>
-      </c>
-      <c r="M39">
-        <v>0.65780099999999997</v>
-      </c>
-      <c r="N39">
-        <v>0.46325539999999998</v>
-      </c>
-      <c r="O39">
-        <v>0.53186940000000005</v>
-      </c>
-      <c r="P39">
-        <v>0.44598480000000001</v>
-      </c>
-      <c r="Q39">
-        <v>0.52082309999999998</v>
-      </c>
-      <c r="R39">
-        <v>0.44186999999999999</v>
-      </c>
-      <c r="S39">
-        <v>0.49712479999999998</v>
-      </c>
-      <c r="T39">
-        <v>0.51537100000000002</v>
-      </c>
-      <c r="U39">
-        <v>0.43712119999999999</v>
-      </c>
-      <c r="V39">
-        <v>0.4384055</v>
-      </c>
-      <c r="W39">
-        <v>0.51537100000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23">
-      <c r="H43">
-        <v>0.44654050000000001</v>
-      </c>
-      <c r="I43">
-        <v>0.44805220000000001</v>
-      </c>
-      <c r="J43">
-        <v>0.46160000000000001</v>
-      </c>
-      <c r="K43">
-        <v>0.50226280000000001</v>
-      </c>
-      <c r="L43">
-        <v>0.44719769999999998</v>
-      </c>
-      <c r="M43">
-        <v>0.52675660000000002</v>
-      </c>
-      <c r="N43">
-        <v>0.46482050000000003</v>
-      </c>
-      <c r="O43">
-        <v>0.53325350000000005</v>
-      </c>
-      <c r="P43">
-        <v>0.45127060000000002</v>
-      </c>
-      <c r="Q43">
-        <v>0.51240589999999997</v>
-      </c>
-      <c r="R43">
-        <v>0.45081520000000003</v>
-      </c>
-      <c r="S43">
-        <v>0.47311229999999999</v>
-      </c>
-      <c r="T43">
-        <v>0.50252589999999997</v>
-      </c>
-      <c r="U43">
-        <v>0.44654050000000001</v>
-      </c>
-      <c r="V43">
-        <v>0.44654050000000001</v>
-      </c>
-      <c r="W43">
-        <v>0.50252589999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
-      <c r="H45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
-      <c r="H46">
-        <v>0.43712119999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23">
-      <c r="H47">
-        <v>0.44274160000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23">
-      <c r="H48">
-        <v>0.46003519999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="8:8">
-      <c r="H49">
-        <v>0.51081299999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50">
-        <v>0.43478650000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="8:8">
-      <c r="H51">
-        <v>0.65780099999999997</v>
-      </c>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52">
-        <v>0.46325539999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="8:8">
-      <c r="H53">
-        <v>0.53186940000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="8:8">
-      <c r="H54">
-        <v>0.44598480000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="8:8">
-      <c r="H55">
-        <v>0.52082309999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8">
-      <c r="H56">
-        <v>0.44186999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8">
-      <c r="H57">
-        <v>0.49712479999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8">
-      <c r="H58">
-        <v>0.51537100000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="8:8">
-      <c r="H59">
-        <v>0.43712119999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="8:8">
-      <c r="H60">
-        <v>0.4384055</v>
-      </c>
-    </row>
-    <row r="61" spans="8:8">
-      <c r="H61">
-        <v>0.51537100000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6828DA2D-D992-C94D-A145-7EBF3ABC05EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5646903D-1F63-8742-BE1E-585A372E4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="6" activeTab="12" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="3600" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="5" activeTab="12" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,6 +1329,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1354,17 +1357,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,7 +1444,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34719"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34779"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1543,7 +1574,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45492"/>
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45612"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1608,7 +1639,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45493"/>
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45613"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1678,7 +1709,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47485"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47605"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1743,7 +1774,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47486"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47606"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1796,9 +1827,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>287867</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>151761</xdr:rowOff>
+          <xdr:colOff>292100</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1813,7 +1844,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56516"/>
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56756"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1827,8 +1858,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="12115800" y="203200"/>
-              <a:ext cx="3606800" cy="1405467"/>
+              <a:off x="12065000" y="203200"/>
+              <a:ext cx="3594100" cy="1435100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1856,14 +1887,14 @@
         <xdr:from>
           <xdr:col>14</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>279401</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>228601</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>259646</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1878,7 +1909,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$14:$E$20" spid="_x0000_s56517"/>
+                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56757"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1919,23 +1950,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>743186</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>141110</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>23</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:colOff>209786</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>318910</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Imagen 4">
+            <xdr:cNvPr id="9" name="Imagen 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3EDC89-2D62-3149-C511-6495D78F8B9F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE9E8FB0-EC20-AA69-A35C-09780D6F56ED}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1943,7 +1974,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$12" spid="_x0000_s56518"/>
+                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56758"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1957,8 +1988,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16192500" y="203200"/>
-              <a:ext cx="3606800" cy="2755900"/>
+              <a:off x="16110186" y="141110"/>
+              <a:ext cx="3594100" cy="2578100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1984,23 +2015,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>216369</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>141112</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>23</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>508469</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>318912</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Imagen 6">
+            <xdr:cNvPr id="10" name="Imagen 9">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EA7210-59D5-B117-AC64-3065BA81117D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11179F4-EC8F-EC18-C610-C42D5CC219A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2008,7 +2039,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$14:$E$23" spid="_x0000_s56519"/>
+                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56759"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2022,8 +2053,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="16192500" y="3365500"/>
-              <a:ext cx="3606800" cy="2743200"/>
+              <a:off x="19710869" y="141112"/>
+              <a:ext cx="3594100" cy="2578100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6508,24 +6539,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="K1" s="88" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="K1" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
       <c r="Q1" t="s">
         <v>191</v>
       </c>
@@ -8133,16 +8164,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:21">
       <c r="C4" s="3" t="s">
@@ -8166,7 +8197,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="89" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -8192,7 +8223,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="88"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="9" t="s">
         <v>208</v>
       </c>
@@ -8216,7 +8247,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1">
-      <c r="A7" s="88"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="9" t="s">
         <v>209</v>
       </c>
@@ -8229,21 +8260,21 @@
       <c r="I7" s="34">
         <v>0.57786409999999999</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="R7" s="81" t="s">
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="R7" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickTop="1">
-      <c r="A8" s="88"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="9" t="s">
         <v>211</v>
       </c>
@@ -8260,17 +8291,17 @@
         <v>0.72784673766721275</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="83" t="s">
+      <c r="N8" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="83" t="s">
+      <c r="S8" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="9" t="s">
@@ -8346,7 +8377,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -8402,7 +8433,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1">
-      <c r="A12" s="88"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
       </c>
@@ -8434,7 +8465,7 @@
       <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="88"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
       </c>
@@ -8449,7 +8480,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="88"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="9" t="s">
         <v>211</v>
       </c>
@@ -8467,7 +8498,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="88"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="9" t="s">
         <v>212</v>
       </c>
@@ -8485,19 +8516,19 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="88"/>
+      <c r="A16" s="89"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:21" ht="17" thickBot="1">
       <c r="C21" s="3" t="s">
@@ -8519,21 +8550,21 @@
       <c r="J21" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="81" t="s">
+      <c r="M21" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="R21" s="81" t="s">
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="R21" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
     </row>
     <row r="22" spans="1:21" ht="17" thickTop="1">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="89" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -8558,20 +8589,20 @@
         <v>0.16</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="83" t="s">
+      <c r="N22" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="83" t="s">
+      <c r="S22" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="88"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="9" t="s">
         <v>208</v>
       </c>
@@ -8619,7 +8650,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="88"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="9" t="s">
         <v>209</v>
       </c>
@@ -8736,7 +8767,7 @@
       <c r="U26" s="32"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="89" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -8762,7 +8793,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="88"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="9" t="s">
         <v>208</v>
       </c>
@@ -8786,7 +8817,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="88"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="9" t="s">
         <v>209</v>
       </c>
@@ -8801,7 +8832,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="88"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="9" t="s">
         <v>211</v>
       </c>
@@ -8819,7 +8850,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="88"/>
+      <c r="A32" s="89"/>
       <c r="B32" s="9" t="s">
         <v>212</v>
       </c>
@@ -8841,6 +8872,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="N22:P22"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="R7:U7"/>
@@ -8848,13 +8886,6 @@
     <mergeCell ref="R21:U21"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8876,24 +8907,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="F1" s="88" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="K1" s="88" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="K1" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
@@ -9968,10 +9999,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42266062-BBB2-574F-BEC1-E67EE490C5D9}">
-  <dimension ref="B2:M23"/>
+  <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G14" zoomScale="159" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9981,26 +10012,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="17" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-    </row>
-    <row r="3" spans="2:13" ht="17" thickTop="1">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+    </row>
+    <row r="3" spans="2:13" ht="16" customHeight="1" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="H3">
         <f>H4/H7</f>
         <v>0.60191739301219471</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" ht="16" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10020,7 +10051,7 @@
         <v>0.12856480000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" ht="16" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
@@ -10052,7 +10083,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" ht="16" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>217</v>
       </c>
@@ -10088,7 +10119,7 @@
         <v>9.7328970000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" ht="16" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -10124,7 +10155,7 @@
         <v>0.45567682512602292</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="12" customHeight="1" thickBot="1">
+    <row r="8" spans="2:13" ht="16" customHeight="1" thickBot="1">
       <c r="B8" s="4"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -10139,13 +10170,13 @@
         <v>8.4189999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="38" customHeight="1">
-      <c r="B9" s="93" t="s">
+    <row r="9" spans="2:13" ht="30" customHeight="1">
+      <c r="B9" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="H9">
         <v>0.15240000000000001</v>
       </c>
@@ -10153,237 +10184,346 @@
         <v>0.94930000000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="29" customHeight="1">
-      <c r="B10" s="90" t="s">
+    <row r="10" spans="2:13" ht="30" customHeight="1">
+      <c r="B10" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="89"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="81"/>
       <c r="H10">
         <v>3.0259999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="91" t="s">
+    <row r="11" spans="2:13" ht="30" customHeight="1">
+      <c r="B11" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-    </row>
-    <row r="12" spans="2:13" ht="23" customHeight="1">
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1">
-      <c r="B14" s="81" t="s">
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="2:13" ht="19" customHeight="1">
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+    </row>
+    <row r="15" spans="2:13" ht="17" thickBot="1">
+      <c r="B15" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-    </row>
-    <row r="15" spans="2:13" ht="17" thickTop="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+    </row>
+    <row r="16" spans="2:13" ht="16" customHeight="1" thickTop="1">
+      <c r="B16" s="2"/>
+      <c r="C16" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+    </row>
+    <row r="17" spans="2:13" ht="16" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="2" t="s">
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="2:13" ht="16" customHeight="1">
+      <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24">
-        <f>H17/C19</f>
+      <c r="C18" s="24">
+        <f>H18/C20</f>
         <v>0.62862882099644712</v>
       </c>
-      <c r="D17" s="40">
-        <f t="shared" ref="D17" si="3">I17/D19</f>
+      <c r="D18" s="40">
+        <f t="shared" ref="D18" si="3">I18/D20</f>
         <v>0.66614481188284602</v>
       </c>
-      <c r="E17" s="40">
-        <f t="shared" ref="E17" si="4">J17/E19</f>
+      <c r="E18" s="40">
+        <f t="shared" ref="E18" si="4">J18/E20</f>
         <v>0.55956068271186599</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H18" s="18">
         <v>3.0715810000000001</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I18" s="40">
         <v>3.0712459999999999</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J18" s="40">
         <v>3.0670310000000001</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="2:13" ht="16" customHeight="1">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="42">
-        <f>H18/C19</f>
+      <c r="C19" s="42">
+        <f>H19/C20</f>
         <v>0.62785807259688586</v>
       </c>
-      <c r="D18" s="18">
-        <f t="shared" ref="D18" si="5">I18/D19</f>
+      <c r="D19" s="18">
+        <f t="shared" ref="D19" si="5">I19/D20</f>
         <v>0.84504079620377759</v>
       </c>
-      <c r="E18" s="18">
-        <f>J18/E19</f>
+      <c r="E19" s="18">
+        <f>J19/E20</f>
         <v>0.56742309676032787</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H19" s="24">
         <v>3.067815</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>3.896042</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J19" s="18">
         <v>3.1101260000000002</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L19" t="s">
         <v>93</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>2.6617660000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="2:13" ht="16" customHeight="1">
+      <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="21">
-        <f>H19</f>
+      <c r="C20" s="21">
+        <f>H20</f>
         <v>4.8861600000000003</v>
       </c>
-      <c r="D19" s="21">
-        <f t="shared" ref="D19" si="6">I19</f>
+      <c r="D20" s="21">
+        <f t="shared" ref="D20" si="6">I20</f>
         <v>4.6104779999999996</v>
       </c>
-      <c r="E19" s="21">
-        <f t="shared" ref="E19" si="7">J19</f>
+      <c r="E20" s="21">
+        <f t="shared" ref="E20" si="7">J20</f>
         <v>5.481141</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>4.8861600000000003</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>4.6104779999999996</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>5.481141</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L20" t="s">
         <v>96</v>
       </c>
-      <c r="M19">
-        <f>M18/H19</f>
+      <c r="M20">
+        <f>M19/H20</f>
         <v>0.5447562093750512</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="17" thickBot="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="H20">
+    <row r="21" spans="2:13" ht="16" customHeight="1" thickBot="1">
+      <c r="B21" s="4"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="H21">
         <v>1.024E-3</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>0.10580000000000001</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>0.4229</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" t="s">
         <v>210</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>1.147E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="38" customHeight="1">
-      <c r="B21" s="93" t="s">
+    <row r="22" spans="2:13" ht="30" customHeight="1">
+      <c r="B22" s="91" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="H21">
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="H22">
         <v>1.0449999999999999E-3</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>0.2051</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>0.42620000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="29" customHeight="1">
-      <c r="B22" s="90" t="s">
+    <row r="23" spans="2:13" ht="30" customHeight="1">
+      <c r="B23" s="92" t="s">
         <v>201</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-    </row>
-    <row r="23" spans="2:13" ht="33" customHeight="1">
-      <c r="B23" s="91" t="s">
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+    </row>
+    <row r="24" spans="2:13" ht="30" customHeight="1">
+      <c r="B24" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="95"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="95"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="95"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="95"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="102"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+    </row>
+    <row r="35" spans="2:9" ht="16" customHeight="1">
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+    </row>
+    <row r="36" spans="2:9" ht="32" customHeight="1">
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+    </row>
+    <row r="37" spans="2:9" ht="47" customHeight="1">
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="20">
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10407,12 +10547,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -10556,12 +10696,12 @@
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10589,10 +10729,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="17" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -10746,44 +10886,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="I2" s="81" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -11372,28 +11512,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="81" t="s">
+      <c r="N24" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -11410,11 +11550,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="83" t="s">
+      <c r="O25" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -11432,12 +11572,12 @@
         <f>'RMSE TRM (I(0))'!M7</f>
         <v>7.1042332719647154</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -11468,11 +11608,11 @@
         <v>0.71412270308234693</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -11953,22 +12093,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -12181,6 +12321,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="B23:E23"/>
@@ -12189,12 +12335,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12215,24 +12355,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="F1" s="84" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="F1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="K1" s="84" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="K1" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
       <c r="Q1" t="s">
         <v>191</v>
       </c>
@@ -13855,15 +13995,15 @@
   <sheetData>
     <row r="1" spans="3:9" ht="17" thickBot="1"/>
     <row r="2" spans="3:9" ht="17" thickBot="1">
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="3:9" ht="17" thickTop="1">
       <c r="C3" s="54"/>
@@ -13951,15 +14091,15 @@
     </row>
     <row r="11" spans="3:9" ht="17" thickBot="1"/>
     <row r="12" spans="3:9" ht="17" thickBot="1">
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="3:9" ht="17" thickTop="1">
       <c r="C13" s="54"/>
@@ -14072,24 +14212,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="F1" s="84" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="F1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="K1" s="84" t="s">
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="K1" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
@@ -15198,44 +15338,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="I2" s="81" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="N2" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -15821,28 +15961,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="81" t="s">
+      <c r="N24" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -15859,11 +15999,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="83" t="s">
+      <c r="O25" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -15881,12 +16021,12 @@
         <f>'RMSE Inf I(0)'!M7</f>
         <v>0.91199937840056167</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -15917,11 +16057,11 @@
         <v>0.95687515455623562</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="83" t="s">
+      <c r="J27" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -16402,22 +16542,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="83" t="s">
+      <c r="C56" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -16630,6 +16770,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I26:L26"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
@@ -16639,11 +16784,6 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5646903D-1F63-8742-BE1E-585A372E4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57CAC43-DD01-134D-82B8-0AE6CDC70D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="5" activeTab="12" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="10200" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="1" activeTab="4" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -1115,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1332,6 +1332,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1357,45 +1360,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,7 +1415,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34779"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34785"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1574,7 +1545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45612"/>
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45624"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1639,7 +1610,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45613"/>
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45625"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1709,7 +1680,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47605"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47617"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1774,7 +1745,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47606"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47618"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1844,7 +1815,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56756"/>
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56780"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1909,7 +1880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56757"/>
+                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56781"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1974,7 +1945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56758"/>
+                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56782"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2039,7 +2010,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56759"/>
+                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56783"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2088,6 +2059,7 @@
     <sheetNames>
       <sheetName val="GLOBAL RAW"/>
       <sheetName val="SURVEY (INF) RAW"/>
+      <sheetName val="TRMNOW"/>
       <sheetName val="EX2017_2020"/>
       <sheetName val="GOOGLE RAW"/>
       <sheetName val="SURVEY (TRM) RAW"/>
@@ -2140,38 +2112,39 @@
       <sheetName val="DBEXC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32">
         <row r="2">
           <cell r="A2" t="str">
             <v>Headline Consumer Price index</v>
@@ -3153,26 +3126,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6539,24 +6512,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="F1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="K1" s="89" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="K1" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
       <c r="Q1" t="s">
         <v>191</v>
       </c>
@@ -8164,16 +8137,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21">
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:21">
       <c r="C4" s="3" t="s">
@@ -8197,7 +8170,7 @@
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="90" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -8223,7 +8196,7 @@
       </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="89"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="9" t="s">
         <v>208</v>
       </c>
@@ -8247,7 +8220,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="9" t="s">
         <v>209</v>
       </c>
@@ -8260,21 +8233,21 @@
       <c r="I7" s="34">
         <v>0.57786409999999999</v>
       </c>
-      <c r="M7" s="82" t="s">
+      <c r="M7" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="R7" s="82" t="s">
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="R7" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickTop="1">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="9" t="s">
         <v>211</v>
       </c>
@@ -8291,17 +8264,17 @@
         <v>0.72784673766721275</v>
       </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="84" t="s">
+      <c r="S8" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="9" t="s">
@@ -8377,7 +8350,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="90" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -8433,7 +8406,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="17" thickBot="1">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="9" t="s">
         <v>208</v>
       </c>
@@ -8465,7 +8438,7 @@
       <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="9" t="s">
         <v>209</v>
       </c>
@@ -8480,7 +8453,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="9" t="s">
         <v>211</v>
       </c>
@@ -8498,7 +8471,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="9" t="s">
         <v>212</v>
       </c>
@@ -8516,19 +8489,19 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="89"/>
+      <c r="A16" s="90"/>
     </row>
     <row r="20" spans="1:21">
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:21" ht="17" thickBot="1">
       <c r="C21" s="3" t="s">
@@ -8550,21 +8523,21 @@
       <c r="J21" t="s">
         <v>210</v>
       </c>
-      <c r="M21" s="82" t="s">
+      <c r="M21" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="R21" s="82" t="s">
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="R21" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="83"/>
     </row>
     <row r="22" spans="1:21" ht="17" thickTop="1">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="90" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -8589,20 +8562,20 @@
         <v>0.16</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="84" t="s">
+      <c r="N22" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="84" t="s">
+      <c r="S22" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
+      <c r="T22" s="85"/>
+      <c r="U22" s="85"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="89"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="9" t="s">
         <v>208</v>
       </c>
@@ -8650,7 +8623,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="89"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="9" t="s">
         <v>209</v>
       </c>
@@ -8767,7 +8740,7 @@
       <c r="U26" s="32"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="90" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -8793,7 +8766,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="89"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="9" t="s">
         <v>208</v>
       </c>
@@ -8817,7 +8790,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="89"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="9" t="s">
         <v>209</v>
       </c>
@@ -8832,7 +8805,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="89"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="9" t="s">
         <v>211</v>
       </c>
@@ -8850,7 +8823,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="89"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="9" t="s">
         <v>212</v>
       </c>
@@ -8872,6 +8845,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="A11:A16"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A22:A24"/>
@@ -8879,13 +8859,6 @@
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8907,24 +8880,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="F1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="K1" s="89" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="K1" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
@@ -10001,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42266062-BBB2-574F-BEC1-E67EE490C5D9}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView showGridLines="0" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10012,20 +9985,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="17" thickBot="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="2:13" ht="16" customHeight="1" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="H3">
         <f>H4/H7</f>
         <v>0.60191739301219471</v>
@@ -10171,12 +10144,12 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="30" customHeight="1">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="H9">
         <v>0.15240000000000001</v>
       </c>
@@ -10185,46 +10158,46 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" customHeight="1">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
       <c r="F10" s="81"/>
       <c r="H10">
         <v>3.0259999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" customHeight="1">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
     </row>
     <row r="12" spans="2:13" ht="19" customHeight="1">
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
     </row>
     <row r="15" spans="2:13" ht="17" thickBot="1">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
     </row>
     <row r="16" spans="2:13" ht="16" customHeight="1" thickTop="1">
       <c r="B16" s="2"/>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
     </row>
     <row r="17" spans="2:13" ht="16" customHeight="1">
       <c r="B17" s="2" t="s">
@@ -10368,12 +10341,12 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="30" customHeight="1">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="H22">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -10385,135 +10358,123 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="30" customHeight="1">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:13" ht="30" customHeight="1">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="95"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="95"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="95"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="95"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="95"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="102"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="16" customHeight="1">
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
     </row>
     <row r="36" spans="2:9" ht="32" customHeight="1">
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="2:9" ht="47" customHeight="1">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="104"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="104"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B22:E22"/>
@@ -10524,6 +10485,16 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10547,12 +10518,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -10696,12 +10667,12 @@
     </row>
     <row r="14" spans="1:5" ht="29" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10729,10 +10700,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="17" thickBot="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="83"/>
     </row>
     <row r="3" spans="2:3" ht="18" thickTop="1" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -10886,44 +10857,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="I2" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -11512,28 +11483,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="82" t="s">
+      <c r="N24" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -11550,11 +11521,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="84" t="s">
+      <c r="O25" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -11572,12 +11543,12 @@
         <f>'RMSE TRM (I(0))'!M7</f>
         <v>7.1042332719647154</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -11608,11 +11579,11 @@
         <v>0.71412270308234693</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="84" t="s">
+      <c r="J27" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -12093,22 +12064,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -12321,12 +12292,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="B23:E23"/>
@@ -12335,6 +12300,12 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12344,8 +12315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1907A93-DFA4-DE49-BD81-CE15FB82F195}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="114" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12355,24 +12326,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="F1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="K1" s="85" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="K1" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
       <c r="Q1" t="s">
         <v>191</v>
       </c>
@@ -13995,15 +13966,15 @@
   <sheetData>
     <row r="1" spans="3:9" ht="17" thickBot="1"/>
     <row r="2" spans="3:9" ht="17" thickBot="1">
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="3:9" ht="17" thickTop="1">
       <c r="C3" s="54"/>
@@ -14091,15 +14062,15 @@
     </row>
     <row r="11" spans="3:9" ht="17" thickBot="1"/>
     <row r="12" spans="3:9" ht="17" thickBot="1">
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
     </row>
     <row r="13" spans="3:9" ht="17" thickTop="1">
       <c r="C13" s="54"/>
@@ -14212,24 +14183,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="F1" s="85" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="F1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="K1" s="85" t="s">
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="K1" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
@@ -15338,44 +15309,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="17" thickBot="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="I2" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="N2" s="82" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="N2" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
     </row>
     <row r="3" spans="2:17" ht="17" thickTop="1">
       <c r="B3" s="2"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="84" t="s">
+      <c r="O3" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2" t="s">
@@ -15961,28 +15932,28 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:17" ht="17" thickBot="1">
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:17" ht="18" thickTop="1" thickBot="1">
       <c r="B24" s="2"/>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
       <c r="I24" s="2"/>
-      <c r="N24" s="82" t="s">
+      <c r="N24" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
     </row>
     <row r="25" spans="2:17" ht="17" thickTop="1">
       <c r="B25" s="2" t="s">
@@ -15999,11 +15970,11 @@
       </c>
       <c r="I25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="84" t="s">
+      <c r="O25" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
     </row>
     <row r="26" spans="2:17" ht="17" thickBot="1">
       <c r="B26" s="2" t="s">
@@ -16021,12 +15992,12 @@
         <f>'RMSE Inf I(0)'!M7</f>
         <v>0.91199937840056167</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
       <c r="N26" s="2" t="s">
         <v>33</v>
       </c>
@@ -16057,11 +16028,11 @@
         <v>0.95687515455623562</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="84" t="s">
+      <c r="J27" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
       <c r="N27" s="2" t="s">
         <v>15</v>
       </c>
@@ -16542,22 +16513,22 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="17" thickBot="1">
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
       <c r="I55" s="2"/>
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="17" thickTop="1">
       <c r="B56" s="2"/>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
       <c r="I56" s="2"/>
       <c r="N56" s="2"/>
     </row>
@@ -16770,11 +16741,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I26:L26"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
@@ -16784,6 +16750,11 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57CAC43-DD01-134D-82B8-0AE6CDC70D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9831E8-FB8B-3A47-BD89-75DAEDA4108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="1" activeTab="4" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="12340" yWindow="500" windowWidth="15980" windowHeight="13820" firstSheet="5" activeTab="12" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34785"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34801"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1545,7 +1545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45624"/>
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45656"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1610,7 +1610,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45625"/>
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45657"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1680,7 +1680,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47617"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47649"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1745,7 +1745,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47618"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47650"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1815,7 +1815,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56780"/>
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56844"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1880,7 +1880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56781"/>
+                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56845"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1945,7 +1945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56782"/>
+                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56846"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2010,7 +2010,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56783"/>
+                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56847"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078143E7-9F3A-BB46-80B9-E96FCBC32625}">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8122,7 +8122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADB81A8-6682-094B-9E6B-951AE63DD90F}">
   <dimension ref="A3:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -9974,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42266062-BBB2-574F-BEC1-E67EE490C5D9}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10001,7 +10001,7 @@
       <c r="E3" s="85"/>
       <c r="H3">
         <f>H4/H7</f>
-        <v>0.60191739301219471</v>
+        <v>0.61530599680418885</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="16" customHeight="1">
@@ -10021,7 +10021,7 @@
         <v>51</v>
       </c>
       <c r="H4">
-        <v>0.12856480000000001</v>
+        <v>0.1314245</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="16" customHeight="1">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="C5" s="18">
         <f>H5/C7</f>
-        <v>0.75410701051209283</v>
+        <v>0.77151823499090089</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" ref="D5:E5" si="0">I5/D7</f>
@@ -10044,7 +10044,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="31">
-        <v>0.1610713</v>
+        <v>0.1647902</v>
       </c>
       <c r="I5" s="31">
         <v>0.3404935</v>
@@ -10134,7 +10134,7 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="H8">
-        <v>1.6729999999999998E-2</v>
+        <v>2.5559999999999999E-2</v>
       </c>
       <c r="L8" t="s">
         <v>210</v>
@@ -10151,7 +10151,7 @@
       <c r="D9" s="93"/>
       <c r="E9" s="93"/>
       <c r="H9">
-        <v>0.15240000000000001</v>
+        <v>0.18260000000000001</v>
       </c>
       <c r="J9">
         <v>0.94930000000000003</v>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="C18" s="24">
         <f>H18/C20</f>
-        <v>0.62862882099644712</v>
+        <v>0.62853795209325924</v>
       </c>
       <c r="D18" s="40">
         <f t="shared" ref="D18" si="3">I18/D20</f>
@@ -10236,7 +10236,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="18">
-        <v>3.0715810000000001</v>
+        <v>3.0711369999999998</v>
       </c>
       <c r="I18" s="40">
         <v>3.0712459999999999</v>
@@ -10325,7 +10325,7 @@
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="H21">
-        <v>1.024E-3</v>
+        <v>1.042E-3</v>
       </c>
       <c r="I21">
         <v>0.10580000000000001</v>
@@ -12315,7 +12315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1907A93-DFA4-DE49-BD81-CE15FB82F195}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="114" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="114" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -13950,7 +13950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB00AE-548F-0F44-814A-D56B6039FE9C}">
   <dimension ref="C1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>

--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9831E8-FB8B-3A47-BD89-75DAEDA4108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F364AA72-F579-6745-B762-C2C56C3DD140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="500" windowWidth="15980" windowHeight="13820" firstSheet="5" activeTab="12" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="8400" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="6" activeTab="9" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s34801"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s65545"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1545,7 +1545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45656"/>
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45704"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1610,7 +1610,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45657"/>
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45705"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1680,7 +1680,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47649"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47697"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1745,7 +1745,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47650"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47698"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1800,7 +1800,7 @@
           <xdr:col>18</xdr:col>
           <xdr:colOff>292100</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>1643</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -1815,7 +1815,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56844"/>
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56940"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1880,7 +1880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56845"/>
+                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56941"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1945,7 +1945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56846"/>
+                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56942"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2010,7 +2010,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56847"/>
+                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56943"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078143E7-9F3A-BB46-80B9-E96FCBC32625}">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9974,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42266062-BBB2-574F-BEC1-E67EE490C5D9}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="139" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12315,7 +12315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1907A93-DFA4-DE49-BD81-CE15FB82F195}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>

--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F364AA72-F579-6745-B762-C2C56C3DD140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD10337F-7EBB-DD4D-8D9D-9EE92FBBA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="6" activeTab="9" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
@@ -1415,7 +1415,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s65545"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s65555"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1545,7 +1545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45704"/>
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45724"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1610,7 +1610,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45705"/>
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45725"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1680,7 +1680,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47697"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47717"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1745,7 +1745,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47698"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47718"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1815,7 +1815,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56940"/>
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56980"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1880,7 +1880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56941"/>
+                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56981"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1945,7 +1945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56942"/>
+                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56982"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2010,7 +2010,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56943"/>
+                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56983"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>

--- a/Figures_Final.xlsx
+++ b/Figures_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santiagodiaz/Documents/Graduate Thesis/Data and Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD10337F-7EBB-DD4D-8D9D-9EE92FBBA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6811637B-B802-C146-B158-850FAF26103F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="460" windowWidth="15980" windowHeight="13820" firstSheet="6" activeTab="9" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
+    <workbookView xWindow="7160" yWindow="460" windowWidth="15980" windowHeight="13820" activeTab="1" xr2:uid="{448AD111-ADBE-0044-BD5E-12729C79A479}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable List" sheetId="3" r:id="rId1"/>
@@ -605,9 +605,6 @@
     <t xml:space="preserve">   3: Monthly Growth Rate (x100)</t>
   </si>
   <si>
-    <t>2 and p/3 ; were p is the number of regressors and 1000 trees</t>
-  </si>
-  <si>
     <t>The default search grid from caret using the nnet package with a maximum number of iterations=1000</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>For one-month ahead forecasts, the RMSFE ratio of the EMEE was 0.4557.</t>
+  </si>
+  <si>
+    <t>2 and p/3 ; were p is the number of regressors</t>
   </si>
 </sst>
 </file>
@@ -1360,12 +1360,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1415,7 +1415,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s65555"/>
+                  <a14:cameraTool cellRange="$B$2:$H$78" spid="_x0000_s65585"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1545,7 +1545,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45724"/>
+                  <a14:cameraTool cellRange="$C$12:$I$18" spid="_x0000_s45784"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1586,14 +1586,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>254000</xdr:colOff>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
@@ -1610,7 +1610,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45725"/>
+                  <a14:cameraTool cellRange="$C$2:$I$8" spid="_x0000_s45785"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1624,7 +1624,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="10972800" y="215900"/>
+              <a:off x="10795000" y="215900"/>
               <a:ext cx="8509000" cy="1435100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1680,7 +1680,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47717"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$B$3:$E$15" spid="_x0000_s47777"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1745,7 +1745,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47718"/>
+                  <a14:cameraTool cellRange="'Res.Inf'!$I$3:$L$21" spid="_x0000_s47778"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1815,7 +1815,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s56980"/>
+                  <a14:cameraTool cellRange="$B$2:$E$8" spid="_x0000_s57100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1880,7 +1880,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s56981"/>
+                  <a14:cameraTool cellRange="$B$15:$E$21" spid="_x0000_s57101"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1945,7 +1945,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s56982"/>
+                  <a14:cameraTool cellRange="$B$2:$E$11" spid="_x0000_s57102"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2010,7 +2010,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s56983"/>
+                  <a14:cameraTool cellRange="$B$15:$E$24" spid="_x0000_s57103"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2112,38 +2112,38 @@
       <sheetName val="DBEXC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
       <sheetData sheetId="32">
         <row r="2">
           <cell r="A2" t="str">
@@ -3126,26 +3126,26 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4887,7 +4887,7 @@
         <v>Emerging Market Bond Index (Global)</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D36" s="11" t="str">
         <f>'[1]List of Variables'!$C35</f>
@@ -4929,7 +4929,7 @@
         <v>Emerging Market Bond Index (Colombia)</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D37" s="11" t="str">
         <f>'[1]List of Variables'!$C36</f>
@@ -4971,7 +4971,7 @@
         <v>Emerging Market Bond Index (LATINO)</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>'[1]List of Variables'!$C37</f>
@@ -5937,7 +5937,7 @@
         <v>Niño 3.4 Sea Surface Temperature Anomalies</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" s="11" t="str">
         <f>'[1]List of Variables'!$C60</f>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{078143E7-9F3A-BB46-80B9-E96FCBC32625}">
   <dimension ref="A1:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6531,7 +6531,7 @@
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
       <c r="Q1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R1" t="s">
         <v>96</v>
@@ -6575,7 +6575,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q2" s="74">
         <v>0.24692823467366906</v>
@@ -8122,7 +8122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADB81A8-6682-094B-9E6B-951AE63DD90F}">
   <dimension ref="A3:U33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P4" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -8138,7 +8138,7 @@
   <sheetData>
     <row r="3" spans="1:21">
       <c r="C3" s="86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="86"/>
@@ -8153,20 +8153,20 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -8198,7 +8198,7 @@
     <row r="6" spans="1:21">
       <c r="A6" s="90"/>
       <c r="B6" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6">
         <v>0.27842240000000001</v>
@@ -8222,7 +8222,7 @@
     <row r="7" spans="1:21" ht="17" thickBot="1">
       <c r="A7" s="90"/>
       <c r="B7" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="34">
         <v>0.3394761</v>
@@ -8240,7 +8240,7 @@
       <c r="O7" s="83"/>
       <c r="P7" s="83"/>
       <c r="R7" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S7" s="83"/>
       <c r="T7" s="83"/>
@@ -8249,7 +8249,7 @@
     <row r="8" spans="1:21" ht="17" thickTop="1">
       <c r="A8" s="90"/>
       <c r="B8" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8">
         <f>C6/C7</f>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="B9" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9">
         <f>C5/C7</f>
@@ -8305,7 +8305,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>1</v>
@@ -8408,7 +8408,7 @@
     <row r="12" spans="1:21" ht="17" thickBot="1">
       <c r="A12" s="90"/>
       <c r="B12" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12">
         <v>0.305759</v>
@@ -8440,7 +8440,7 @@
     <row r="13" spans="1:21">
       <c r="A13" s="90"/>
       <c r="B13" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="34">
         <v>0.3394761</v>
@@ -8455,7 +8455,7 @@
     <row r="14" spans="1:21">
       <c r="A14" s="90"/>
       <c r="B14" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14">
         <f>C12/C13</f>
@@ -8473,7 +8473,7 @@
     <row r="15" spans="1:21">
       <c r="A15" s="90"/>
       <c r="B15" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C15">
         <f>C11/C13</f>
@@ -8493,7 +8493,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="C20" s="86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="86"/>
       <c r="E20" s="86"/>
@@ -8508,20 +8508,20 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M21" s="83" t="s">
         <v>99</v>
@@ -8530,7 +8530,7 @@
       <c r="O21" s="83"/>
       <c r="P21" s="83"/>
       <c r="R21" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S21" s="83"/>
       <c r="T21" s="83"/>
@@ -8577,7 +8577,7 @@
     <row r="23" spans="1:21">
       <c r="A23" s="90"/>
       <c r="B23" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23">
         <v>4.5354530000000004</v>
@@ -8598,7 +8598,7 @@
         <v>0.4</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>1</v>
@@ -8625,7 +8625,7 @@
     <row r="24" spans="1:21">
       <c r="A24" s="90"/>
       <c r="B24" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C24" s="34">
         <v>5.5688789999999999</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="B25" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C25">
         <f>C23/C24</f>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="26" spans="1:21" ht="17" thickBot="1">
       <c r="B26" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C26">
         <f>C22/C24</f>
@@ -8768,7 +8768,7 @@
     <row r="29" spans="1:21">
       <c r="A29" s="90"/>
       <c r="B29" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29">
         <v>4.0104410000000001</v>
@@ -8792,7 +8792,7 @@
     <row r="30" spans="1:21">
       <c r="A30" s="90"/>
       <c r="B30" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30" s="34">
         <v>5.5688789999999999</v>
@@ -8807,7 +8807,7 @@
     <row r="31" spans="1:21">
       <c r="A31" s="90"/>
       <c r="B31" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31">
         <f>C29/C30</f>
@@ -8825,7 +8825,7 @@
     <row r="32" spans="1:21">
       <c r="A32" s="90"/>
       <c r="B32" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C32">
         <f>C28/C30</f>
@@ -8845,6 +8845,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="N22:P22"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="R7:U7"/>
@@ -8852,13 +8859,6 @@
     <mergeCell ref="R21:U21"/>
     <mergeCell ref="S22:U22"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8868,8 +8868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC262110-74E5-B94F-8048-06AB921D361A}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView topLeftCell="J1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9974,8 +9974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42266062-BBB2-574F-BEC1-E67EE490C5D9}">
   <dimension ref="B2:M37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="139" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" topLeftCell="H13" zoomScale="139" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9986,7 +9986,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17" thickBot="1">
       <c r="B2" s="83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="83"/>
       <c r="D2" s="83"/>
@@ -10053,12 +10053,12 @@
         <v>0.38299680000000003</v>
       </c>
       <c r="L5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="16" customHeight="1">
       <c r="B6" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="42">
         <f>H6/C7</f>
@@ -10137,19 +10137,19 @@
         <v>2.5559999999999999E-2</v>
       </c>
       <c r="L8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M8">
         <v>8.4189999999999994E-3</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="30" customHeight="1">
-      <c r="B9" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="B9" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
       <c r="H9">
         <v>0.18260000000000001</v>
       </c>
@@ -10158,24 +10158,24 @@
       </c>
     </row>
     <row r="10" spans="2:13" ht="30" customHeight="1">
-      <c r="B10" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
+      <c r="B10" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="81"/>
       <c r="H10">
         <v>3.0259999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="30" customHeight="1">
-      <c r="B11" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="B11" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
     </row>
     <row r="12" spans="2:13" ht="19" customHeight="1">
       <c r="B12" s="82"/>
@@ -10245,7 +10245,7 @@
         <v>3.0670310000000001</v>
       </c>
       <c r="L18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="16" customHeight="1">
@@ -10334,19 +10334,19 @@
         <v>0.4229</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M21">
         <v>1.147E-3</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="30" customHeight="1">
-      <c r="B22" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
+      <c r="B22" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
       <c r="H22">
         <v>1.0449999999999999E-3</v>
       </c>
@@ -10358,22 +10358,22 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="30" customHeight="1">
-      <c r="B23" s="91" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
+      <c r="B23" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
       <c r="G23" s="81"/>
       <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:13" ht="30" customHeight="1">
-      <c r="B24" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
+      <c r="B24" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="86"/>
@@ -10444,37 +10444,47 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="2:9" ht="16" customHeight="1">
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
     </row>
     <row r="36" spans="2:9" ht="32" customHeight="1">
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
     </row>
     <row r="37" spans="2:9" ht="47" customHeight="1">
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B22:E22"/>
@@ -10485,16 +10495,6 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10506,15 +10506,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC117912-0C8C-9148-92E3-D11D63C517C1}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="55.83203125" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17" thickBot="1">
@@ -10530,7 +10530,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>54</v>
@@ -10568,13 +10568,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10582,7 +10582,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>60</v>
@@ -10596,7 +10596,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>60</v>
@@ -10610,7 +10610,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>102</v>
@@ -10624,7 +10624,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>62</v>
@@ -10638,7 +10638,7 @@
         <v>78</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>79</v>
@@ -10656,7 +10656,7 @@
         <v>111</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1">
@@ -10668,7 +10668,7 @@
     <row r="14" spans="1:5" ht="29" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="84"/>
@@ -12292,6 +12292,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="O3:Q3"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="B23:E23"/>
@@ -12300,12 +12306,6 @@
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12315,8 +12315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1907A93-DFA4-DE49-BD81-CE15FB82F195}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A15" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12345,7 +12345,7 @@
       <c r="M1" s="86"/>
       <c r="N1" s="86"/>
       <c r="Q1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R1" t="s">
         <v>96</v>
@@ -12389,14 +12389,14 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q2" s="74">
-        <v>3.1786943227619227</v>
+        <v>3.17869432276192</v>
       </c>
       <c r="R2">
         <f>Q2/B3</f>
-        <v>0.57079608351374178</v>
+        <v>0.57079608351374134</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="35" customFormat="1">
@@ -13950,8 +13950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFB00AE-548F-0F44-814A-D56B6039FE9C}">
   <dimension ref="C1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13967,7 +13967,7 @@
     <row r="1" spans="3:9" ht="17" thickBot="1"/>
     <row r="2" spans="3:9" ht="17" thickBot="1">
       <c r="C2" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="88"/>
       <c r="E2" s="88"/>
@@ -13982,24 +13982,24 @@
         <v>1</v>
       </c>
       <c r="E3" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H3" s="68" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="3:9">
       <c r="C4" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="57" t="s">
         <v>51</v>
@@ -14008,7 +14008,7 @@
         <v>0.78132333910988139</v>
       </c>
       <c r="F4" s="60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="59">
         <v>0.87378043735554056</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="5" spans="3:9" ht="17" thickBot="1">
       <c r="C5" s="71" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>43</v>
@@ -14045,25 +14045,25 @@
     </row>
     <row r="6" spans="3:9">
       <c r="C6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="3:9" ht="13" customHeight="1">
       <c r="C7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="3:9">
       <c r="C8" s="75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="17" thickBot="1"/>
     <row r="12" spans="3:9" ht="17" thickBot="1">
       <c r="C12" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="88"/>
@@ -14078,24 +14078,24 @@
         <v>1</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="67" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H13" s="68" t="s">
         <v>3</v>
       </c>
       <c r="I13" s="69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>16</v>
@@ -14110,7 +14110,7 @@
         <v>0.68692796537752643</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I14" s="63">
         <v>0.69103553094028414</v>
@@ -14118,7 +14118,7 @@
     </row>
     <row r="15" spans="3:9" ht="17" thickBot="1">
       <c r="C15" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="58" t="s">
         <v>37</v>
@@ -14141,19 +14141,19 @@
     </row>
     <row r="16" spans="3:9">
       <c r="C16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="3:4">
       <c r="C17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -14171,8 +14171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CFBEBB-574B-AF48-9FA5-E06F3341DF54}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -15296,7 +15296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F432959-ABC2-8F4B-9F71-0EF47A79DE53}">
   <dimension ref="B2:Q93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -16741,6 +16741,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I26:L26"/>
     <mergeCell ref="N24:Q24"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B2:E2"/>
@@ -16750,11 +16755,6 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
